--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\pandasApp\myenv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE91C5-DAE3-42E9-A2A1-DABC09221B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E55F44-89A0-492E-AAA0-7A073DC4DAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理後明細" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="168">
   <si>
     <t>日期</t>
   </si>
@@ -50,7 +50,7 @@
     <t>金額</t>
   </si>
   <si>
-    <t>2026/11/15</t>
+    <t>2026/01/15</t>
   </si>
   <si>
     <t>CS13</t>
@@ -74,439 +74,442 @@
     <t>CS10</t>
   </si>
   <si>
-    <t>A特沉料尺6(香)</t>
+    <t>A特沉料尺6(40斤)(香)</t>
   </si>
   <si>
     <t>CS09</t>
   </si>
   <si>
+    <t>A特沉料尺3(40斤)(香)</t>
+  </si>
+  <si>
+    <t>CS08</t>
+  </si>
+  <si>
+    <t>桂香尺6(40斤)</t>
+  </si>
+  <si>
+    <t>CS07</t>
+  </si>
+  <si>
+    <t>桂香尺3(40斤)</t>
+  </si>
+  <si>
+    <t>2026/01/11</t>
+  </si>
+  <si>
+    <t>PK05</t>
+  </si>
+  <si>
+    <t>福鼎壽金(金箔)60支</t>
+  </si>
+  <si>
+    <t>PK06</t>
+  </si>
+  <si>
+    <t>福鼎四方金(金箔)60支</t>
+  </si>
+  <si>
+    <t>PK07</t>
+  </si>
+  <si>
+    <t>福鼎福金(金箔)60支</t>
+  </si>
+  <si>
+    <t>2026/01/05</t>
+  </si>
+  <si>
+    <t>J019</t>
+  </si>
+  <si>
+    <t>(四方)地藏王30支</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>(本色)古紙40支</t>
+  </si>
+  <si>
+    <t>RA32</t>
+  </si>
+  <si>
+    <t>2尺八方螺旋香12hr</t>
+  </si>
+  <si>
+    <t>2026/01/03</t>
+  </si>
+  <si>
+    <t>G002</t>
+  </si>
+  <si>
+    <t>台中粗四方60支</t>
+  </si>
+  <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>台中粗壽金30支</t>
+  </si>
+  <si>
+    <t>L045</t>
+  </si>
+  <si>
+    <t>竹庫錢50支</t>
+  </si>
+  <si>
+    <t>2026/01/02</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>7640寵物金40入</t>
+  </si>
+  <si>
+    <t>L074</t>
+  </si>
+  <si>
+    <t>竹小往生24入</t>
+  </si>
+  <si>
+    <t>PN27</t>
+  </si>
+  <si>
+    <t>*075超拔寵物金40盒</t>
+  </si>
+  <si>
+    <t>2025/12/30</t>
+  </si>
+  <si>
+    <t>L064</t>
+  </si>
+  <si>
+    <t>竹大壽生6入</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>壽生(6千)</t>
+  </si>
+  <si>
+    <t>L056</t>
+  </si>
+  <si>
+    <t>竹彩面五路18支</t>
+  </si>
+  <si>
+    <t>2025/12/27</t>
+  </si>
+  <si>
+    <t>SHOP3</t>
+  </si>
+  <si>
+    <t>蝦皮-大師手作-小盤香香爐1個</t>
+  </si>
+  <si>
+    <t>SHOP2</t>
+  </si>
+  <si>
+    <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+  </si>
+  <si>
+    <t>2025/12/26</t>
+  </si>
+  <si>
+    <t>SHOP1</t>
+  </si>
+  <si>
+    <t>蝦皮-隆盛行-便爐(小)</t>
+  </si>
+  <si>
+    <t>2025/12/21</t>
+  </si>
+  <si>
+    <t>PE304</t>
+  </si>
+  <si>
+    <t>304大金元寶100盒</t>
+  </si>
+  <si>
+    <t>WB01</t>
+  </si>
+  <si>
+    <t>(安全)防風燈50對</t>
+  </si>
+  <si>
+    <t>WB02</t>
+  </si>
+  <si>
+    <t>3號防風燭80入</t>
+  </si>
+  <si>
+    <t>L057</t>
+  </si>
+  <si>
+    <t>竹彩面土地公18支</t>
+  </si>
+  <si>
+    <t>L068</t>
+  </si>
+  <si>
+    <t>(小)竹四方金48支G5-S</t>
+  </si>
+  <si>
+    <t>L055</t>
+  </si>
+  <si>
+    <t>竹壽金(5只)30支</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>(紅)補運錢40支</t>
+  </si>
+  <si>
+    <t>PE0306</t>
+  </si>
+  <si>
+    <t>306大金條100盒</t>
+  </si>
+  <si>
+    <t>2025/12/20</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>(白三色)花仔錢60支</t>
+  </si>
+  <si>
+    <t>L067</t>
+  </si>
+  <si>
+    <t>(小)竹壽金(十面)20支</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>金白錢各1</t>
+  </si>
+  <si>
+    <t>2025/12/19</t>
+  </si>
+  <si>
+    <t>L051</t>
+  </si>
+  <si>
+    <t>竹蓮花金30支G6</t>
+  </si>
+  <si>
+    <t>竹漿天尺20支</t>
+  </si>
+  <si>
+    <t>I004</t>
+  </si>
+  <si>
+    <t>粗甲馬(10支)</t>
+  </si>
+  <si>
+    <t>YE02</t>
+  </si>
+  <si>
+    <t>冥元美金100(30入)</t>
+  </si>
+  <si>
+    <t>L052</t>
+  </si>
+  <si>
+    <t>竹蓮花銀30支G6</t>
+  </si>
+  <si>
+    <t>2025/12/16</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>日曆(贈送)</t>
+  </si>
+  <si>
+    <t>2025/12/10</t>
+  </si>
+  <si>
+    <t>WA02</t>
+  </si>
+  <si>
+    <t>(2號)旺6對</t>
+  </si>
+  <si>
+    <t>2025/12/08</t>
+  </si>
+  <si>
+    <t>竹庫錢50支'</t>
+  </si>
+  <si>
+    <t>L069</t>
+  </si>
+  <si>
+    <t>(小)竹福金50支G9-S</t>
+  </si>
+  <si>
+    <t>L071</t>
+  </si>
+  <si>
+    <t>(小)竹銀紙(2只)50支</t>
+  </si>
+  <si>
+    <t>2025/12/03</t>
+  </si>
+  <si>
+    <t>2025/12/02</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>太極(5張)</t>
+  </si>
+  <si>
+    <t>L037</t>
+  </si>
+  <si>
+    <t>台北環保壽金48支</t>
+  </si>
+  <si>
+    <t>L038</t>
+  </si>
+  <si>
+    <t>台北環保刈金48支</t>
+  </si>
+  <si>
+    <t>PE505</t>
+  </si>
+  <si>
+    <t>50S土地公6盒</t>
+  </si>
+  <si>
+    <t>G007</t>
+  </si>
+  <si>
+    <t>粗蓮花金48支</t>
+  </si>
+  <si>
+    <t>G006</t>
+  </si>
+  <si>
+    <t>*粗蓮花銀36支</t>
+  </si>
+  <si>
+    <t>TA10</t>
+  </si>
+  <si>
+    <t>A634男名牌LV裝40入</t>
+  </si>
+  <si>
+    <t>TA02</t>
+  </si>
+  <si>
+    <t>A631男恤衫40入</t>
+  </si>
+  <si>
+    <t>TA18</t>
+  </si>
+  <si>
+    <t>B159男休閒鞋30入</t>
+  </si>
+  <si>
+    <t>TA22</t>
+  </si>
+  <si>
+    <t>B165男波鞋30入</t>
+  </si>
+  <si>
+    <t>TA01</t>
+  </si>
+  <si>
+    <t>A650男西裝40入</t>
+  </si>
+  <si>
+    <t>2025/11/27</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>白毛邊壽金50只</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>白毛邊天金50只</t>
+  </si>
+  <si>
+    <t>2025/11/25</t>
+  </si>
+  <si>
+    <t>2025/11/21</t>
+  </si>
+  <si>
+    <t>G003</t>
+  </si>
+  <si>
+    <t>台中粗福金40支</t>
+  </si>
+  <si>
+    <t>G004</t>
+  </si>
+  <si>
+    <t>台中粗銀紙40支</t>
+  </si>
+  <si>
+    <t>G055</t>
+  </si>
+  <si>
+    <t>台北刈金50支</t>
+  </si>
+  <si>
+    <t>G058</t>
+  </si>
+  <si>
+    <t>台北大銀50支</t>
+  </si>
+  <si>
+    <t>2025/11/13</t>
+  </si>
+  <si>
+    <t>CS05</t>
+  </si>
+  <si>
+    <t>板沉尺6(香)</t>
+  </si>
+  <si>
+    <t>CS04</t>
+  </si>
+  <si>
+    <t>板沉尺3(香)</t>
+  </si>
+  <si>
+    <t>CS02</t>
+  </si>
+  <si>
+    <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+  </si>
+  <si>
+    <t>CS01</t>
+  </si>
+  <si>
+    <t>微煙10A香環(60入)</t>
+  </si>
+  <si>
+    <t>CS06</t>
+  </si>
+  <si>
     <t>A特沉料尺3(香)</t>
-  </si>
-  <si>
-    <t>CS08</t>
-  </si>
-  <si>
-    <t>桂香尺6</t>
-  </si>
-  <si>
-    <t>CS07</t>
-  </si>
-  <si>
-    <t>桂香尺3</t>
-  </si>
-  <si>
-    <t>2026/11/13</t>
-  </si>
-  <si>
-    <t>CS04</t>
-  </si>
-  <si>
-    <t>板沉尺3(香)</t>
-  </si>
-  <si>
-    <t>CS01</t>
-  </si>
-  <si>
-    <t>微煙10A香環(60入)</t>
-  </si>
-  <si>
-    <t>CS02</t>
-  </si>
-  <si>
-    <t>41-1-E123香環?(24入)</t>
-  </si>
-  <si>
-    <t>CS05</t>
-  </si>
-  <si>
-    <t>板沉尺6(香)</t>
-  </si>
-  <si>
-    <t>CS06</t>
-  </si>
-  <si>
-    <t>2026/01/11</t>
-  </si>
-  <si>
-    <t>PK07</t>
-  </si>
-  <si>
-    <t>福鼎福金(金箔)60支</t>
-  </si>
-  <si>
-    <t>PK06</t>
-  </si>
-  <si>
-    <t>福鼎四方金(金箔)60支</t>
-  </si>
-  <si>
-    <t>PK05</t>
-  </si>
-  <si>
-    <t>福鼎壽金(金箔)60支</t>
-  </si>
-  <si>
-    <t>2026/01/05</t>
-  </si>
-  <si>
-    <t>J019</t>
-  </si>
-  <si>
-    <t>(四方)地藏王30支</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>(本色)古紙40支</t>
-  </si>
-  <si>
-    <t>RA32</t>
-  </si>
-  <si>
-    <t>2尺八方螺旋香12hr</t>
-  </si>
-  <si>
-    <t>2026/01/03</t>
-  </si>
-  <si>
-    <t>L045</t>
-  </si>
-  <si>
-    <t>竹庫錢50支</t>
-  </si>
-  <si>
-    <t>G001</t>
-  </si>
-  <si>
-    <t>台中粗壽金30支</t>
-  </si>
-  <si>
-    <t>G002</t>
-  </si>
-  <si>
-    <t>台中粗四方60支</t>
-  </si>
-  <si>
-    <t>2026/01/02</t>
-  </si>
-  <si>
-    <t>L074</t>
-  </si>
-  <si>
-    <t>竹小往生24入</t>
-  </si>
-  <si>
-    <t>PN27</t>
-  </si>
-  <si>
-    <t>*075超拔寵物金40盒</t>
-  </si>
-  <si>
-    <t>P114</t>
-  </si>
-  <si>
-    <t>7640寵物金40入</t>
-  </si>
-  <si>
-    <t>2025/12/30</t>
-  </si>
-  <si>
-    <t>L064</t>
-  </si>
-  <si>
-    <t>竹大壽生6入</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>壽生(6千)</t>
-  </si>
-  <si>
-    <t>L056</t>
-  </si>
-  <si>
-    <t>竹彩面五路18支</t>
-  </si>
-  <si>
-    <t>2025/12/27</t>
-  </si>
-  <si>
-    <t>SHOP3</t>
-  </si>
-  <si>
-    <t>蝦皮-大師手作-小盤香香爐1個</t>
-  </si>
-  <si>
-    <t>SHOP2</t>
-  </si>
-  <si>
-    <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
-  </si>
-  <si>
-    <t>2025/12/26</t>
-  </si>
-  <si>
-    <t>SHOP1</t>
-  </si>
-  <si>
-    <t>蝦皮-隆盛行-便爐(小)</t>
-  </si>
-  <si>
-    <t>2025/12/21</t>
-  </si>
-  <si>
-    <t>L068</t>
-  </si>
-  <si>
-    <t>(小)竹四方金48支G5-S</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>(紅)補運錢40支</t>
-  </si>
-  <si>
-    <t>L055</t>
-  </si>
-  <si>
-    <t>竹壽金(5只)30支</t>
-  </si>
-  <si>
-    <t>PE304</t>
-  </si>
-  <si>
-    <t>304大金元寶100盒</t>
-  </si>
-  <si>
-    <t>L057</t>
-  </si>
-  <si>
-    <t>竹彩面土地公18支</t>
-  </si>
-  <si>
-    <t>WB02</t>
-  </si>
-  <si>
-    <t>3號防風燭80入</t>
-  </si>
-  <si>
-    <t>WB01</t>
-  </si>
-  <si>
-    <t>(安全)防風燈50對</t>
-  </si>
-  <si>
-    <t>PE0306</t>
-  </si>
-  <si>
-    <t>306大金條100盒</t>
-  </si>
-  <si>
-    <t>2025/12/20</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>(白三色)花仔錢60支</t>
-  </si>
-  <si>
-    <t>L067</t>
-  </si>
-  <si>
-    <t>(小)竹壽金(十面)20支</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>金白錢各1</t>
-  </si>
-  <si>
-    <t>2025/12/19</t>
-  </si>
-  <si>
-    <t>I004</t>
-  </si>
-  <si>
-    <t>粗甲馬(10支)</t>
-  </si>
-  <si>
-    <t>YE02</t>
-  </si>
-  <si>
-    <t>冥元美金100(30入)</t>
-  </si>
-  <si>
-    <t>L051</t>
-  </si>
-  <si>
-    <t>竹蓮花金30支G6</t>
-  </si>
-  <si>
-    <t>L052</t>
-  </si>
-  <si>
-    <t>竹蓮花銀30支G6</t>
-  </si>
-  <si>
-    <t>竹漿天尺20支</t>
-  </si>
-  <si>
-    <t>2025/12/16</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>日曆(贈送)</t>
-  </si>
-  <si>
-    <t>2025/12/10</t>
-  </si>
-  <si>
-    <t>WA02</t>
-  </si>
-  <si>
-    <t>(2號)旺6對</t>
-  </si>
-  <si>
-    <t>2025/12/08</t>
-  </si>
-  <si>
-    <t>L071</t>
-  </si>
-  <si>
-    <t>(小)竹銀紙(2只)50支</t>
-  </si>
-  <si>
-    <t>L069</t>
-  </si>
-  <si>
-    <t>(小)竹福金50支G9-S</t>
-  </si>
-  <si>
-    <t>竹庫錢50支'</t>
-  </si>
-  <si>
-    <t>2025/12/03</t>
-  </si>
-  <si>
-    <t>2025/12/02</t>
-  </si>
-  <si>
-    <t>G007</t>
-  </si>
-  <si>
-    <t>粗蓮花金48支</t>
-  </si>
-  <si>
-    <t>L037</t>
-  </si>
-  <si>
-    <t>台北環保壽金48支</t>
-  </si>
-  <si>
-    <t>L038</t>
-  </si>
-  <si>
-    <t>台北環保刈金48支</t>
-  </si>
-  <si>
-    <t>PE505</t>
-  </si>
-  <si>
-    <t>50S土地公6盒</t>
-  </si>
-  <si>
-    <t>TA01</t>
-  </si>
-  <si>
-    <t>A650男西裝40入</t>
-  </si>
-  <si>
-    <t>G006</t>
-  </si>
-  <si>
-    <t>*粗蓮花銀36支</t>
-  </si>
-  <si>
-    <t>TA22</t>
-  </si>
-  <si>
-    <t>B165男波鞋30入</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>太極(5張)</t>
-  </si>
-  <si>
-    <t>TA02</t>
-  </si>
-  <si>
-    <t>A631男恤衫40入</t>
-  </si>
-  <si>
-    <t>TA10</t>
-  </si>
-  <si>
-    <t>A634男名牌LV裝40入</t>
-  </si>
-  <si>
-    <t>TA18</t>
-  </si>
-  <si>
-    <t>B159男休閒鞋30入</t>
-  </si>
-  <si>
-    <t>2025/11/27</t>
-  </si>
-  <si>
-    <t>B019</t>
-  </si>
-  <si>
-    <t>白毛邊天金50只</t>
-  </si>
-  <si>
-    <t>B018</t>
-  </si>
-  <si>
-    <t>白毛邊壽金50只</t>
-  </si>
-  <si>
-    <t>2025/11/25</t>
-  </si>
-  <si>
-    <t>2025/11/21</t>
-  </si>
-  <si>
-    <t>G004</t>
-  </si>
-  <si>
-    <t>台中粗銀紙40支</t>
-  </si>
-  <si>
-    <t>G055</t>
-  </si>
-  <si>
-    <t>台北刈金50支</t>
-  </si>
-  <si>
-    <t>G003</t>
-  </si>
-  <si>
-    <t>台中粗福金40支</t>
-  </si>
-  <si>
-    <t>G058</t>
-  </si>
-  <si>
-    <t>台北大銀50支</t>
   </si>
   <si>
     <t>平均進貨成本</t>
@@ -592,19 +595,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,28 +904,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="7" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -951,10 +940,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>2026</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -974,10 +963,10 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2026</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -997,10 +986,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>2026</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -1020,10 +1009,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2026</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
@@ -1043,10 +1032,10 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>2026</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -1066,10 +1055,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2026</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
@@ -1089,10 +1078,10 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2026</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -1112,608 +1101,608 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2026</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>105</v>
+        <v>570</v>
       </c>
       <c r="G9">
-        <v>3150</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2026</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>570</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>2026</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>120</v>
+        <v>570</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3">
+        <v>29</v>
+      </c>
+      <c r="B12">
         <v>2026</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="G12">
-        <v>1050</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
+        <v>29</v>
+      </c>
+      <c r="B13">
         <v>2026</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="G13">
-        <v>1400</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>2026</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="G14">
-        <v>2850</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3">
+        <v>36</v>
+      </c>
+      <c r="B15">
         <v>2026</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
+      <c r="C15" t="s">
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>570</v>
+        <v>205</v>
       </c>
       <c r="G15">
-        <v>2850</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3">
+        <v>36</v>
+      </c>
+      <c r="B16">
         <v>2026</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
+      <c r="C16" t="s">
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>570</v>
+        <v>205</v>
       </c>
       <c r="G16">
-        <v>2850</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>2026</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
+      <c r="C17" t="s">
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="G17">
-        <v>390</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>2026</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
+      <c r="C18" t="s">
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>440</v>
+        <v>850</v>
       </c>
       <c r="G18">
-        <v>1320</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3">
+        <v>43</v>
+      </c>
+      <c r="B19">
         <v>2026</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="G19">
-        <v>1050</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>2026</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
       <c r="E20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="G20">
-        <v>3120</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3">
+        <v>43</v>
+      </c>
+      <c r="B21">
         <v>2026</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
       <c r="E21">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F21">
-        <v>205</v>
+        <v>810</v>
       </c>
       <c r="G21">
-        <v>1640</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>205</v>
+        <v>810</v>
       </c>
       <c r="G22">
-        <v>1640</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>230</v>
       </c>
       <c r="G23">
-        <v>1150</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>810</v>
+        <v>290</v>
       </c>
       <c r="G24">
-        <v>-810</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>850</v>
+        <v>320</v>
       </c>
       <c r="G25">
-        <v>850</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2026</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>2025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>195</v>
       </c>
       <c r="G26">
-        <v>4290</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>2025</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>810</v>
+        <v>135</v>
       </c>
       <c r="G27">
-        <v>810</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>2025</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="G28">
-        <v>460</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>2025</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>290</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="B30">
+        <v>2025</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F30">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="G30">
-        <v>960</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>2025</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>195</v>
+        <v>800</v>
       </c>
       <c r="G31">
-        <v>195</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>2025</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="G32">
-        <v>270</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>2025</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G33">
-        <v>675</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>2025</v>
+      </c>
+      <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="G34">
-        <v>4500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>2025</v>
+      </c>
+      <c r="C35" t="s">
         <v>78</v>
       </c>
       <c r="D35" t="s">
@@ -1731,12 +1720,12 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>2025</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
@@ -1746,1137 +1735,1137 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>2900</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C37" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B37">
+        <v>2025</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="G37">
-        <v>200</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>2025</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="G38">
-        <v>640</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G39">
-        <v>800</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>2025</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="G40">
-        <v>-600</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>2025</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>490</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>2025</v>
+      </c>
+      <c r="C42" t="s">
         <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>94</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="G42">
-        <v>430</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>2025</v>
+      </c>
+      <c r="C43" t="s">
         <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>230</v>
+        <v>490</v>
       </c>
       <c r="G43">
-        <v>2300</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44">
+        <v>2025</v>
+      </c>
+      <c r="C44" t="s">
         <v>97</v>
       </c>
       <c r="D44" t="s">
         <v>98</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="G44">
-        <v>240</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45" t="s">
         <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>101</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>102</v>
+      <c r="B46">
+        <v>2025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="G46">
-        <v>490</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
       <c r="E47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="G47">
-        <v>870</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>2025</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
       <c r="E48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="G48">
-        <v>870</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>2025</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>490</v>
+        <v>225</v>
       </c>
       <c r="G49">
-        <v>490</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>2025</v>
+      </c>
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="G50">
-        <v>600</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>2025</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="B52">
+        <v>2025</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>510</v>
+        <v>205</v>
       </c>
       <c r="G52">
-        <v>2040</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="G53">
-        <v>2200</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>111</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G54">
-        <v>820</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="B55">
+        <v>2025</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>205</v>
+        <v>720</v>
       </c>
       <c r="G55">
-        <v>1230</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>2025</v>
+      </c>
+      <c r="C56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="G56">
-        <v>1125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>2025</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
       </c>
       <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
         <v>120</v>
       </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-      <c r="F57">
-        <v>195</v>
-      </c>
       <c r="G57">
-        <v>975</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>2025</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>230</v>
       </c>
       <c r="G58">
-        <v>460</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="G59">
-        <v>430</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="B60">
+        <v>2025</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>225</v>
       </c>
       <c r="G60">
-        <v>1125</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="B61">
+        <v>2025</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61">
         <v>225</v>
       </c>
       <c r="G61">
-        <v>225</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>2025</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="G62">
-        <v>240</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63">
+        <v>2025</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="G63">
-        <v>360</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="B64">
+        <v>2025</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G64">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="B65">
+        <v>2025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>1450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="B66">
+        <v>2025</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="G66">
-        <v>3375</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
+      </c>
+      <c r="B67">
+        <v>2025</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>700</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>2025</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G68">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="B69">
+        <v>2025</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="G69">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>2025</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71">
+        <v>2025</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" t="s">
         <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>138</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="G71">
-        <v>720</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>78</v>
+        <v>135</v>
+      </c>
+      <c r="B72">
+        <v>2025</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="G72">
-        <v>1525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B73">
+        <v>2025</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <v>2025</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="B75">
+        <v>2025</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="B76">
+        <v>2025</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="G76">
-        <v>550</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77">
+        <v>2025</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" t="s">
-        <v>149</v>
-      </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="G77">
-        <v>550</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>63</v>
+        <v>141</v>
+      </c>
+      <c r="B78">
+        <v>2025</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="G78">
-        <v>290</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="B79">
+        <v>2025</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G79">
-        <v>1125</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80">
+        <v>2025</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="D80" t="s">
-        <v>41</v>
-      </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="G80">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81">
+        <v>2025</v>
+      </c>
+      <c r="C81" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" t="s">
         <v>152</v>
       </c>
-      <c r="D81" t="s">
-        <v>153</v>
-      </c>
       <c r="E81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="G81">
-        <v>340</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C82" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
         <v>154</v>
       </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
       <c r="E82">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F82">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="G82">
-        <v>370</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" t="s">
         <v>156</v>
       </c>
-      <c r="D83" t="s">
-        <v>157</v>
-      </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="G83">
-        <v>340</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>49</v>
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>2025</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>410</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="B85">
+        <v>2025</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F85">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="G85">
-        <v>370</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2874,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2922,16 +2910,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>2026</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -2945,16 +2933,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2988,15 +2976,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>290</v>
@@ -3004,10 +2992,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3015,10 +3003,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>440</v>
@@ -3026,10 +3014,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>550</v>
@@ -3037,10 +3025,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>550</v>
@@ -3048,10 +3036,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -3059,10 +3047,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -3070,10 +3058,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -3081,10 +3069,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>105</v>
@@ -3092,10 +3080,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -3191,10 +3179,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>430</v>
@@ -3202,10 +3190,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <v>720</v>
@@ -3213,10 +3201,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>205</v>
@@ -3224,10 +3212,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>205</v>
@@ -3235,10 +3223,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C24">
         <v>170</v>
@@ -3246,10 +3234,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C25">
         <v>170</v>
@@ -3257,10 +3245,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C26">
         <v>210</v>
@@ -3268,10 +3256,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>225</v>
@@ -3279,10 +3267,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>185</v>
@@ -3290,10 +3278,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C29">
         <v>185</v>
@@ -3301,10 +3289,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>135</v>
@@ -3312,10 +3300,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>390</v>
@@ -3323,10 +3311,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>120</v>
@@ -3334,10 +3322,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C33">
         <v>120</v>
@@ -3345,10 +3333,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>195</v>
@@ -3356,10 +3344,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>195</v>
@@ -3367,10 +3355,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>290</v>
@@ -3378,10 +3366,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C37">
         <v>290</v>
@@ -3389,10 +3377,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>290</v>
@@ -3400,10 +3388,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>320</v>
@@ -3411,10 +3399,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>320</v>
@@ -3422,10 +3410,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>230</v>
@@ -3433,10 +3421,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>230</v>
@@ -3444,10 +3432,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>225</v>
@@ -3455,10 +3443,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C44">
         <v>225</v>
@@ -3466,10 +3454,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <v>220</v>
@@ -3477,10 +3465,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>230</v>
@@ -3488,10 +3476,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>490</v>
@@ -3499,10 +3487,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <v>120</v>
@@ -3510,10 +3498,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>850</v>
@@ -3521,10 +3509,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -3532,10 +3520,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -3543,10 +3531,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C52">
         <v>700</v>
@@ -3554,10 +3542,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>570</v>
@@ -3565,10 +3553,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>570</v>
@@ -3576,10 +3564,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>570</v>
@@ -3587,18 +3575,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>350</v>
@@ -3606,10 +3594,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>135</v>
@@ -3617,10 +3605,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>135</v>
@@ -3628,10 +3616,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>195</v>
@@ -3639,10 +3627,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -3650,10 +3638,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -3661,10 +3649,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -3672,10 +3660,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -3683,10 +3671,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C65">
         <v>50</v>
@@ -3694,10 +3682,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C66">
         <v>510</v>
@@ -3705,18 +3693,18 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>800</v>
@@ -3724,10 +3712,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>490</v>
@@ -3758,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3766,10 +3754,10 @@
         <v>2025</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>290</v>
@@ -3780,10 +3768,10 @@
         <v>2025</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3794,10 +3782,10 @@
         <v>2025</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>550</v>
@@ -3808,10 +3796,10 @@
         <v>2025</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>550</v>
@@ -3822,13 +3810,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3836,13 +3824,13 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>430</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3850,13 +3838,13 @@
         <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D8">
-        <v>720</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3864,13 +3852,13 @@
         <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3878,13 +3866,13 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3892,13 +3880,13 @@
         <v>2025</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>170</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3906,13 +3894,13 @@
         <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3920,13 +3908,13 @@
         <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>210</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3934,13 +3922,13 @@
         <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3948,13 +3936,13 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3962,13 +3950,13 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3976,13 +3964,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>2025</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>390</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>2025</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4018,13 +4006,13 @@
         <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,13 +4020,13 @@
         <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,13 +4034,13 @@
         <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>290</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4060,13 +4048,13 @@
         <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4074,13 +4062,13 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4088,13 +4076,13 @@
         <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>320</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4102,13 +4090,13 @@
         <v>2025</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4116,13 +4104,13 @@
         <v>2025</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4130,13 +4118,13 @@
         <v>2025</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,7 +4138,7 @@
         <v>77</v>
       </c>
       <c r="D29">
-        <v>225</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,13 +4146,13 @@
         <v>2025</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -4172,13 +4160,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4186,10 +4174,10 @@
         <v>2025</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>230</v>
@@ -4200,13 +4188,13 @@
         <v>2025</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>490</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4214,13 +4202,13 @@
         <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4228,13 +4216,13 @@
         <v>2025</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4242,13 +4230,13 @@
         <v>2025</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,13 +4244,13 @@
         <v>2025</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>700</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -4270,13 +4258,13 @@
         <v>2025</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>810</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4284,13 +4272,13 @@
         <v>2025</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -4298,13 +4286,13 @@
         <v>2025</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4312,13 +4300,13 @@
         <v>2025</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,13 +4314,13 @@
         <v>2025</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -4340,13 +4328,13 @@
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -4354,13 +4342,13 @@
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,13 +4356,13 @@
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,13 +4370,13 @@
         <v>2025</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -4396,13 +4384,13 @@
         <v>2025</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>510</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4410,10 +4398,13 @@
         <v>2025</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>128</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,13 +4412,13 @@
         <v>2025</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D49">
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,83 +4426,80 @@
         <v>2025</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D50">
-        <v>490</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="D51">
-        <v>440</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>105</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D55">
-        <v>105</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,13 +4507,13 @@
         <v>2026</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>70</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4631,10 +4619,10 @@
         <v>2026</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <v>205</v>
@@ -4645,10 +4633,10 @@
         <v>2026</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D65">
         <v>205</v>
@@ -4659,10 +4647,10 @@
         <v>2026</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>390</v>
@@ -4673,10 +4661,10 @@
         <v>2026</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>195</v>
@@ -4687,10 +4675,10 @@
         <v>2026</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D68">
         <v>230</v>
@@ -4701,10 +4689,10 @@
         <v>2026</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <v>850</v>
@@ -4715,10 +4703,10 @@
         <v>2026</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D70">
         <v>570</v>
@@ -4729,10 +4717,10 @@
         <v>2026</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>570</v>
@@ -4743,10 +4731,10 @@
         <v>2026</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>570</v>
@@ -4757,10 +4745,10 @@
         <v>2026</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D73">
         <v>810</v>
@@ -4771,10 +4759,10 @@
         <v>2026</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>350</v>
@@ -4796,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4805,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4813,10 +4801,10 @@
         <v>2025</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>290</v>
@@ -4827,10 +4815,10 @@
         <v>2025</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4841,10 +4829,10 @@
         <v>2025</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>550</v>
@@ -4855,10 +4843,10 @@
         <v>2025</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>550</v>
@@ -4869,13 +4857,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4883,13 +4871,13 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>430</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4897,13 +4885,13 @@
         <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D8">
-        <v>720</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,13 +4899,13 @@
         <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4925,13 +4913,13 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4939,13 +4927,13 @@
         <v>2025</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>170</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4953,13 +4941,13 @@
         <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4967,13 +4955,13 @@
         <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>210</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4981,13 +4969,13 @@
         <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4995,13 +4983,13 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5009,13 +4997,13 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5023,13 +5011,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5037,13 +5025,13 @@
         <v>2025</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>390</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5051,13 +5039,13 @@
         <v>2025</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5065,13 +5053,13 @@
         <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5079,13 +5067,13 @@
         <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,13 +5081,13 @@
         <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>290</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5107,13 +5095,13 @@
         <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5121,13 +5109,13 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5135,13 +5123,13 @@
         <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>320</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5149,13 +5137,13 @@
         <v>2025</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,13 +5151,13 @@
         <v>2025</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5177,13 +5165,13 @@
         <v>2025</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5197,7 +5185,7 @@
         <v>77</v>
       </c>
       <c r="D29">
-        <v>225</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5205,13 +5193,13 @@
         <v>2025</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5219,13 +5207,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5233,10 +5221,10 @@
         <v>2025</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>230</v>
@@ -5247,13 +5235,13 @@
         <v>2025</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>490</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5261,13 +5249,13 @@
         <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,13 +5263,13 @@
         <v>2025</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5289,13 +5277,13 @@
         <v>2025</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5303,13 +5291,13 @@
         <v>2025</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>700</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5317,13 +5305,13 @@
         <v>2025</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>810</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5331,13 +5319,13 @@
         <v>2025</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5345,13 +5333,13 @@
         <v>2025</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5359,13 +5347,13 @@
         <v>2025</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5373,13 +5361,13 @@
         <v>2025</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5387,13 +5375,13 @@
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -5401,13 +5389,13 @@
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5415,13 +5403,13 @@
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5429,13 +5417,13 @@
         <v>2025</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5443,13 +5431,13 @@
         <v>2025</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>510</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5457,10 +5445,13 @@
         <v>2025</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>128</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5468,13 +5459,13 @@
         <v>2025</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D49">
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5482,83 +5473,80 @@
         <v>2025</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D50">
-        <v>490</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="D51">
-        <v>440</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>105</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D55">
-        <v>105</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5566,13 +5554,13 @@
         <v>2026</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>70</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5678,10 +5666,10 @@
         <v>2026</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <v>205</v>
@@ -5692,10 +5680,10 @@
         <v>2026</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D65">
         <v>205</v>
@@ -5706,10 +5694,10 @@
         <v>2026</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>390</v>
@@ -5720,10 +5708,10 @@
         <v>2026</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>195</v>
@@ -5734,10 +5722,10 @@
         <v>2026</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D68">
         <v>230</v>
@@ -5748,10 +5736,10 @@
         <v>2026</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <v>850</v>
@@ -5762,10 +5750,10 @@
         <v>2026</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D70">
         <v>570</v>
@@ -5776,10 +5764,10 @@
         <v>2026</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>570</v>
@@ -5790,10 +5778,10 @@
         <v>2026</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>570</v>
@@ -5804,10 +5792,10 @@
         <v>2026</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D73">
         <v>810</v>
@@ -5818,10 +5806,10 @@
         <v>2026</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>350</v>
@@ -5837,14 +5825,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5855,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5961,142 +5949,142 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
-        <v>105</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12">
-        <v>105</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>570</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15">
-        <v>570</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>570</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>440</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>390</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6107,318 +6095,318 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>350</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
       <c r="D20">
-        <v>205</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>205</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>230</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>850</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>290</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>320</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>230</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>810</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29">
-        <v>135</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>305</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>290</v>
+        <v>800</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D34">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D38">
-        <v>800</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39">
-        <v>430</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>120</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -6432,161 +6420,161 @@
         <v>99</v>
       </c>
       <c r="D42">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>99</v>
       </c>
       <c r="D43">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D44">
-        <v>290</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D45">
-        <v>490</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D46">
-        <v>490</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
         <v>110</v>
       </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49">
-        <v>510</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D51">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D52">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D53">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -6597,24 +6585,24 @@
         <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D54">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D55">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -6625,108 +6613,108 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D56">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D57">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D58">
-        <v>700</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D59">
-        <v>60</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
-      </c>
       <c r="D61">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,80 +6725,80 @@
         <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D64">
-        <v>550</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D65">
-        <v>550</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
         <v>156</v>
       </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69">
-        <v>185</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6841,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\pandasApp\myenv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E55F44-89A0-492E-AAA0-7A073DC4DAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182323DD-F691-4FBB-96CA-9E3B99E1B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,43 +53,43 @@
     <t>2026/01/15</t>
   </si>
   <si>
-    <t>CS13</t>
+    <t>鑫東記13</t>
   </si>
   <si>
     <t>富貴沉A尺6(香)</t>
   </si>
   <si>
-    <t>CS12</t>
+    <t>鑫東記12</t>
   </si>
   <si>
     <t>富貴沉A尺3(香)</t>
   </si>
   <si>
-    <t>CS11</t>
+    <t>鑫東記11</t>
   </si>
   <si>
     <t>四季10香環(60入)</t>
   </si>
   <si>
-    <t>CS10</t>
+    <t>鑫東記10</t>
   </si>
   <si>
     <t>A特沉料尺6(40斤)(香)</t>
   </si>
   <si>
-    <t>CS09</t>
+    <t>鑫東記09</t>
   </si>
   <si>
     <t>A特沉料尺3(40斤)(香)</t>
   </si>
   <si>
-    <t>CS08</t>
+    <t>鑫東記08</t>
   </si>
   <si>
     <t>桂香尺6(40斤)</t>
   </si>
   <si>
-    <t>CS07</t>
+    <t>鑫東記07</t>
   </si>
   <si>
     <t>桂香尺3(40斤)</t>
@@ -482,31 +482,31 @@
     <t>2025/11/13</t>
   </si>
   <si>
-    <t>CS05</t>
+    <t>鑫東記05</t>
   </si>
   <si>
     <t>板沉尺6(香)</t>
   </si>
   <si>
-    <t>CS04</t>
+    <t>鑫東記04</t>
   </si>
   <si>
     <t>板沉尺3(香)</t>
   </si>
   <si>
-    <t>CS02</t>
+    <t>鑫東記02</t>
   </si>
   <si>
     <t>41-1-E123極品水沉香(小盤香)(24入)</t>
   </si>
   <si>
-    <t>CS01</t>
+    <t>鑫東記01</t>
   </si>
   <si>
     <t>微煙10A香環(60入)</t>
   </si>
   <si>
-    <t>CS06</t>
+    <t>鑫東記06</t>
   </si>
   <si>
     <t>A特沉料尺3(香)</t>
@@ -905,12 +905,12 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3036,689 +3036,689 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>305</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C20">
-        <v>430</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C21">
-        <v>720</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>170</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C26">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>185</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <v>390</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C32">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C33">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C35">
-        <v>195</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>290</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38">
-        <v>290</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C39">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C40">
-        <v>320</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>230</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>230</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>225</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44">
-        <v>225</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>490</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C49">
-        <v>850</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C52">
-        <v>700</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C53">
-        <v>570</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>570</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55">
-        <v>570</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C57">
-        <v>350</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C58">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C59">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="C60">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>510</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>800</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>490</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3810,13 +3810,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,13 +3824,13 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3838,13 +3838,13 @@
         <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3852,13 +3852,13 @@
         <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,13 +3866,13 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3880,13 +3880,13 @@
         <v>2025</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3894,13 +3894,13 @@
         <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D12">
-        <v>430</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3908,13 +3908,13 @@
         <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>720</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3922,13 +3922,13 @@
         <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3950,13 +3950,13 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3964,13 +3964,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>2025</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>210</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3992,13 +3992,13 @@
         <v>2025</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D19">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4006,13 +4006,13 @@
         <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4034,13 +4034,13 @@
         <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>135</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4048,13 +4048,13 @@
         <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4062,13 +4062,13 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4076,13 +4076,13 @@
         <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4090,13 +4090,13 @@
         <v>2025</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>195</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4104,13 +4104,13 @@
         <v>2025</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4118,13 +4118,13 @@
         <v>2025</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D28">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4132,13 +4132,13 @@
         <v>2025</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>290</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>2025</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>320</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4174,10 +4174,10 @@
         <v>2025</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>230</v>
@@ -4188,13 +4188,13 @@
         <v>2025</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4202,13 +4202,13 @@
         <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>2025</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>225</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4230,13 +4230,13 @@
         <v>2025</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4244,13 +4244,13 @@
         <v>2025</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D37">
-        <v>230</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -4258,13 +4258,13 @@
         <v>2025</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>490</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,13 +4272,13 @@
         <v>2025</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>2025</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,13 +4300,13 @@
         <v>2025</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -4314,13 +4314,13 @@
         <v>2025</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D42">
-        <v>700</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -4328,13 +4328,13 @@
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D43">
-        <v>810</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -4342,13 +4342,13 @@
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D45">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4370,13 +4370,13 @@
         <v>2025</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -4384,13 +4384,13 @@
         <v>2025</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4398,13 +4398,10 @@
         <v>2025</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4412,13 +4409,13 @@
         <v>2025</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4426,13 +4423,13 @@
         <v>2025</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -4440,13 +4437,13 @@
         <v>2025</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -4454,13 +4451,13 @@
         <v>2025</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="D52">
-        <v>510</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4468,10 +4465,13 @@
         <v>2025</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -4479,13 +4479,13 @@
         <v>2025</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4493,13 +4493,13 @@
         <v>2025</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D55">
-        <v>490</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4521,13 +4521,13 @@
         <v>2026</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4535,13 +4535,13 @@
         <v>2026</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4549,13 +4549,13 @@
         <v>2026</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4563,13 +4563,13 @@
         <v>2026</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4577,13 +4577,13 @@
         <v>2026</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4591,13 +4591,13 @@
         <v>2026</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D62">
-        <v>80</v>
+        <v>850</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4605,13 +4605,13 @@
         <v>2026</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4619,13 +4619,13 @@
         <v>2026</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>205</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4633,13 +4633,13 @@
         <v>2026</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>205</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4647,13 +4647,13 @@
         <v>2026</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D66">
-        <v>390</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>2026</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D67">
-        <v>195</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4675,13 +4675,13 @@
         <v>2026</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>230</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4689,13 +4689,13 @@
         <v>2026</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>850</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>2026</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>570</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4717,13 +4717,13 @@
         <v>2026</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>570</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4731,13 +4731,13 @@
         <v>2026</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>570</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4745,13 +4745,13 @@
         <v>2026</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>810</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,13 +4759,13 @@
         <v>2026</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4857,13 +4857,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4871,13 +4871,13 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4885,13 +4885,13 @@
         <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4899,13 +4899,13 @@
         <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4913,13 +4913,13 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4927,13 +4927,13 @@
         <v>2025</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4941,13 +4941,13 @@
         <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D12">
-        <v>430</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4955,13 +4955,13 @@
         <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>720</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4969,13 +4969,13 @@
         <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4983,13 +4983,13 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4997,13 +4997,13 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5011,13 +5011,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5025,13 +5025,13 @@
         <v>2025</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>210</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5039,13 +5039,13 @@
         <v>2025</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D19">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5053,13 +5053,13 @@
         <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5067,13 +5067,13 @@
         <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5081,13 +5081,13 @@
         <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>135</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5095,13 +5095,13 @@
         <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5109,13 +5109,13 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5123,13 +5123,13 @@
         <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5137,13 +5137,13 @@
         <v>2025</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>195</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5151,13 +5151,13 @@
         <v>2025</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5165,13 +5165,13 @@
         <v>2025</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D28">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5179,13 +5179,13 @@
         <v>2025</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>290</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5193,13 +5193,13 @@
         <v>2025</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>320</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5207,13 +5207,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5221,10 +5221,10 @@
         <v>2025</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>230</v>
@@ -5235,13 +5235,13 @@
         <v>2025</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5249,13 +5249,13 @@
         <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5263,13 +5263,13 @@
         <v>2025</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>225</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5277,13 +5277,13 @@
         <v>2025</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5291,13 +5291,13 @@
         <v>2025</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D37">
-        <v>230</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5305,13 +5305,13 @@
         <v>2025</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>490</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5319,13 +5319,13 @@
         <v>2025</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5333,13 +5333,13 @@
         <v>2025</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5347,13 +5347,13 @@
         <v>2025</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5361,13 +5361,13 @@
         <v>2025</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D42">
-        <v>700</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5375,13 +5375,13 @@
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D43">
-        <v>810</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -5389,13 +5389,13 @@
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D45">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5417,13 +5417,13 @@
         <v>2025</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5431,13 +5431,13 @@
         <v>2025</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5445,13 +5445,10 @@
         <v>2025</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5459,13 +5456,13 @@
         <v>2025</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5473,13 +5470,13 @@
         <v>2025</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5487,13 +5484,13 @@
         <v>2025</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5501,13 +5498,13 @@
         <v>2025</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="D52">
-        <v>510</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5515,10 +5512,13 @@
         <v>2025</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5526,13 +5526,13 @@
         <v>2025</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5540,13 +5540,13 @@
         <v>2025</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D55">
-        <v>490</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,13 +5568,13 @@
         <v>2026</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5582,13 +5582,13 @@
         <v>2026</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5596,13 +5596,13 @@
         <v>2026</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5610,13 +5610,13 @@
         <v>2026</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5624,13 +5624,13 @@
         <v>2026</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5638,13 +5638,13 @@
         <v>2026</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D62">
-        <v>80</v>
+        <v>850</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5652,13 +5652,13 @@
         <v>2026</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>2026</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>205</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,13 +5680,13 @@
         <v>2026</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>205</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -5694,13 +5694,13 @@
         <v>2026</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D66">
-        <v>390</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -5708,13 +5708,13 @@
         <v>2026</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D67">
-        <v>195</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5722,13 +5722,13 @@
         <v>2026</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>230</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -5736,13 +5736,13 @@
         <v>2026</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>850</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -5750,13 +5750,13 @@
         <v>2026</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>570</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -5764,13 +5764,13 @@
         <v>2026</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>570</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5778,13 +5778,13 @@
         <v>2026</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>570</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,13 +5792,13 @@
         <v>2026</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>810</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5806,13 +5806,13 @@
         <v>2026</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5826,13 +5826,12 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -488,28 +488,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>225</v>
+        <v>470</v>
       </c>
       <c r="G2" t="n">
-        <v>4500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,28 +517,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="G3" t="n">
-        <v>615</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -546,28 +546,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,22 +575,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -604,22 +604,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7">
@@ -633,22 +633,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="G7" t="n">
-        <v>630</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -691,22 +691,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -720,22 +720,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -749,22 +749,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="G11" t="n">
-        <v>240</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12">
@@ -778,28 +778,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="G12" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -807,28 +807,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鑫東記13</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>富貴沉A尺6(香)</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="G13" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -836,28 +836,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G14" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -865,28 +865,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -894,22 +894,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="G16" t="n">
-        <v>70</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="17">
@@ -923,22 +923,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>富貴沉A尺6(香)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>70</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18">
@@ -952,22 +952,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>富貴沉A尺3(香)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19">
@@ -981,28 +981,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1010,28 +1010,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>2850</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1039,28 +1039,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>2850</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1068,28 +1068,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>570</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>2850</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1097,28 +1097,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>1050</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="G24" t="n">
-        <v>1320</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,28 +1155,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="G25" t="n">
-        <v>390</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1184,28 +1184,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>205</v>
+        <v>570</v>
       </c>
       <c r="G26" t="n">
-        <v>1640</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1213,28 +1213,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="G27" t="n">
-        <v>1640</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,28 +1242,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>195</v>
+        <v>440</v>
       </c>
       <c r="G28" t="n">
-        <v>3120</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1271,28 +1271,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G29" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>810</v>
+        <v>205</v>
       </c>
       <c r="G30" t="n">
-        <v>-810</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1329,28 +1329,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>850</v>
+        <v>205</v>
       </c>
       <c r="G31" t="n">
-        <v>850</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1367,81 +1367,81 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
         <v>195</v>
       </c>
       <c r="G32" t="n">
-        <v>4290</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="G33" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L056</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>竹彩面五路18支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>960</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1454,48 +1454,48 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F35" t="n">
         <v>810</v>
       </c>
       <c r="G35" t="n">
-        <v>810</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F36" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G36" t="n">
-        <v>460</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1503,28 +1503,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G37" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1532,28 +1532,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>L056</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>竹彩面五路18支</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="G38" t="n">
-        <v>270</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1561,28 +1561,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>135</v>
+        <v>810</v>
       </c>
       <c r="G39" t="n">
-        <v>675</v>
+        <v>810</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1590,28 +1590,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G40" t="n">
-        <v>4500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1619,28 +1619,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="G41" t="n">
-        <v>1525</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1648,28 +1648,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="G42" t="n">
-        <v>2900</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PE304</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>304大金元寶100盒</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="G43" t="n">
-        <v>200</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44">
@@ -1735,22 +1735,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WB02</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3號防風燭80入</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="G45" t="n">
-        <v>800</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="46">
@@ -1764,22 +1764,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>600</v>
+        <v>225</v>
       </c>
       <c r="G46" t="n">
-        <v>-600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="47">
@@ -1793,28 +1793,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PE0306</t>
+          <t>PE304</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>306大金條100盒</t>
+          <t>304大金元寶100盒</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1822,28 +1822,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>WB02</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>3號防風燭80入</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="G48" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1851,28 +1851,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F49" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="G49" t="n">
-        <v>2300</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1880,28 +1880,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="G50" t="n">
-        <v>240</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1909,28 +1909,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>I004</t>
+          <t>PE0306</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>粗甲馬(10支)</t>
+          <t>306大金條100盒</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1938,28 +1938,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="G52" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1967,28 +1967,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>L067</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>(小)竹壽金(十面)20支</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G53" t="n">
-        <v>870</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1996,22 +1996,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>金白錢各1</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="G54" t="n">
-        <v>870</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55">
@@ -2025,28 +2025,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>I004</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>粗甲馬(10支)</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="G55" t="n">
-        <v>490</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2054,28 +2054,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>YE02</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>冥元美金100(30入)</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="G56" t="n">
-        <v>600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2083,28 +2083,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>日曆(贈送)</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2112,28 +2112,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>510</v>
+        <v>290</v>
       </c>
       <c r="G58" t="n">
-        <v>2040</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2141,28 +2141,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>竹漿天尺20支</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="G59" t="n">
-        <v>1230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2170,28 +2170,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F60" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G60" t="n">
-        <v>820</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2199,28 +2199,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>L071</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(小)竹銀紙(2只)50支</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G61" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2228,28 +2228,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>225</v>
+        <v>600</v>
       </c>
       <c r="G62" t="n">
-        <v>1125</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2257,28 +2257,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>竹庫錢50支'</t>
+          <t>日曆(贈送)</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2286,28 +2286,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>(2號)旺6對</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>230</v>
+        <v>510</v>
       </c>
       <c r="G64" t="n">
-        <v>460</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2315,28 +2315,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="G65" t="n">
-        <v>430</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2344,28 +2344,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>粗蓮花金48支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G66" t="n">
-        <v>225</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2373,28 +2373,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>L071</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>(小)竹銀紙(2只)50支</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>720</v>
+        <v>220</v>
       </c>
       <c r="G67" t="n">
-        <v>720</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2402,28 +2402,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="G68" t="n">
-        <v>240</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2431,28 +2431,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>竹庫錢50支'</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="G69" t="n">
-        <v>360</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2460,28 +2460,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>230</v>
       </c>
       <c r="G70" t="n">
-        <v>230</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="G71" t="n">
-        <v>1450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>G006</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>*粗蓮花銀36支</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G72" t="n">
-        <v>3375</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>50S土地公6盒</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="G73" t="n">
-        <v>1125</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74">
@@ -2576,22 +2576,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>50S土地公6盒</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>700</v>
+        <v>225</v>
       </c>
       <c r="G74" t="n">
-        <v>700</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>G006</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>*粗蓮花銀36支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G75" t="n">
-        <v>210</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="76">
@@ -2634,22 +2634,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G76" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G77" t="n">
-        <v>1525</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="78">
@@ -2692,22 +2692,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="G78" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79">
@@ -2721,22 +2721,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G79" t="n">
-        <v>50</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80">
@@ -2750,22 +2750,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>太極(5張)</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="G80" t="n">
-        <v>50</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81">
@@ -2779,28 +2779,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>G007</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>粗蓮花金48支</t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="G81" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2808,28 +2808,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>B019</t>
+          <t>TA22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>白毛邊天金50只</t>
+          <t>B165男波鞋30入</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2837,28 +2837,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>B018</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>白毛邊壽金50只</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>550</v>
+        <v>305</v>
       </c>
       <c r="G83" t="n">
-        <v>550</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2866,28 +2866,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>A650男西裝40入</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="G84" t="n">
-        <v>1125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2895,28 +2895,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>A631男恤衫40入</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2924,28 +2924,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>TA10</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>台中粗銀紙40支</t>
+          <t>A634男名牌LV裝40入</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2953,28 +2953,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>TA18</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>B159男休閒鞋30入</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>390</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2982,28 +2982,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>G003</t>
+          <t>B019</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>台中粗福金40支</t>
+          <t>白毛邊天金50只</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="G88" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3011,28 +3011,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>B018</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>白毛邊壽金50只</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>205</v>
+        <v>550</v>
       </c>
       <c r="G89" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3040,28 +3040,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>G055</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>台北刈金50支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G90" t="n">
-        <v>370</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3069,28 +3069,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>G058</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>台北大銀50支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="G91" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3098,28 +3098,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>G003</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>台中粗福金40支</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
-        <v>3150</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3127,28 +3127,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>G055</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>台北刈金50支</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="G93" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3156,28 +3156,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="G94" t="n">
-        <v>1050</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3185,50 +3185,224 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>G004</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>台中粗銀紙40支</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>台中粗壽金30支</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>205</v>
+      </c>
+      <c r="G96" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>台北大銀50支</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>185</v>
+      </c>
+      <c r="G97" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>2025/11/13</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C96" t="inlineStr">
+      <c r="B98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>20</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鑫東記05</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>板沉尺6(香)</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>105</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鑫東記04</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>板沉尺3(香)</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" t="n">
+        <v>105</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鑫東記02</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>120</v>
+      </c>
+      <c r="G101" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>鑫東記01</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>微煙10A香環(60入)</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F102" t="n">
         <v>45</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G102" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3357,7 +3531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3484,7 +3658,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -3934,7 +4108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
@@ -4133,27 +4307,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>135</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -4163,57 +4337,57 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>60</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>A650男西裝40入</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>A631男恤衫40入</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -4223,12 +4397,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>TA10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>A634男名牌LV裝40入</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -4238,12 +4412,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>TA18</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>B159男休閒鞋30入</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -4253,220 +4427,220 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>TA22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>B165男波鞋30入</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>(2號)旺6對</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>510</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WB02</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3號防風燭80入</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>800</v>
-      </c>
+          <t>(安全)防風燈50對</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>WB02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>3號防風燭80入</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>310</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>490</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>YE02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>冥元美金100(30入)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -4476,45 +4650,105 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4529,7 +4763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5445,16 +5679,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
@@ -5463,16 +5697,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
@@ -5481,16 +5715,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -5499,16 +5733,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -5517,52 +5751,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>290</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>440</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -5571,16 +5805,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59">
@@ -5589,16 +5823,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60">
@@ -5607,16 +5841,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61">
@@ -5625,16 +5859,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -5643,16 +5877,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
@@ -5661,16 +5895,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
@@ -5679,16 +5913,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
@@ -5697,16 +5931,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
@@ -5715,16 +5949,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>205</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67">
@@ -5733,16 +5967,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -5751,16 +5985,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -5769,16 +6003,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
@@ -5787,16 +6021,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71">
@@ -5805,16 +6039,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>850</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -5823,16 +6057,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>570</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73">
@@ -5841,16 +6075,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>570</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74">
@@ -5859,16 +6093,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>570</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75">
@@ -5877,16 +6111,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
     </row>
     <row r="76">
@@ -5895,16 +6129,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77">
@@ -5913,16 +6147,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>310</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78">
@@ -5931,16 +6165,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79">
@@ -5949,16 +6183,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80">
@@ -5967,16 +6201,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81">
@@ -5985,16 +6219,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82">
@@ -6003,16 +6237,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83">
@@ -6021,16 +6255,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84">
@@ -6039,16 +6273,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>80</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85">
@@ -6057,15 +6291,123 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D91" t="n">
         <v>80</v>
       </c>
     </row>
@@ -6080,7 +6422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6996,16 +7338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
@@ -7014,16 +7356,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
@@ -7032,16 +7374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -7050,16 +7392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -7068,52 +7410,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>290</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>440</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -7122,16 +7464,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59">
@@ -7140,16 +7482,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60">
@@ -7158,16 +7500,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61">
@@ -7176,16 +7518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -7194,16 +7536,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
@@ -7212,16 +7554,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
@@ -7230,16 +7572,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
@@ -7248,16 +7590,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
@@ -7266,16 +7608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>205</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67">
@@ -7284,16 +7626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -7302,16 +7644,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -7320,16 +7662,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
@@ -7338,16 +7680,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71">
@@ -7356,16 +7698,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>850</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -7374,16 +7716,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>570</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73">
@@ -7392,16 +7734,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>570</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74">
@@ -7410,16 +7752,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>570</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75">
@@ -7428,16 +7770,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
     </row>
     <row r="76">
@@ -7446,16 +7788,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77">
@@ -7464,16 +7806,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>310</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78">
@@ -7482,16 +7824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79">
@@ -7500,16 +7842,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80">
@@ -7518,16 +7860,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81">
@@ -7536,16 +7878,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82">
@@ -7554,16 +7896,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83">
@@ -7572,16 +7914,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84">
@@ -7590,16 +7932,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>80</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85">
@@ -7608,15 +7950,123 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D91" t="n">
         <v>80</v>
       </c>
     </row>
@@ -7631,7 +8081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7794,11 +8244,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
@@ -8394,11 +8844,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
@@ -8664,37 +9114,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>135</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -8704,12 +9154,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8718,38 +9168,38 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>60</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>A650男西裝40入</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8758,18 +9208,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>A631男恤衫40入</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8784,12 +9234,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>TA10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>A634男名牌LV裝40入</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8804,12 +9254,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>TA18</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>B159男休閒鞋30入</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8824,212 +9274,212 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>TA22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>B165男波鞋30入</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>(2號)旺6對</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WB02</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3號防風燭80入</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>WB02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>3號防風燭80入</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>310</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>490</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>45</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>YE02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>冥元美金100(30入)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9038,83 +9488,83 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -9124,12 +9574,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9138,18 +9588,18 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9158,26 +9608,106 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>2026/01/15</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -9192,7 +9722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9225,6 +9755,52 @@
         <is>
           <t>最新進價</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(紅)補運錢40支</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>305</v>
+      </c>
+      <c r="E2" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L069</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(小)竹福金50支G9-S</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>225</v>
+      </c>
+      <c r="E3" t="n">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>X001</t>
+          <t>大甲金筒42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B大壽黃500張</t>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>470</v>
+        <v>1100</v>
       </c>
       <c r="G2" t="n">
-        <v>470</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>大甲金筒19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>310</v>
+        <v>1600</v>
       </c>
       <c r="G3" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4">
@@ -546,22 +546,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>大甲金筒17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>230</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RE32</t>
+          <t>大甲金筒16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>尺3微煙TG3沉(1.1)10斤</t>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -604,28 +604,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>大甲金筒15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>205</v>
+        <v>1400</v>
       </c>
       <c r="G6" t="n">
-        <v>615</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -633,28 +633,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>大甲金筒14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>510</v>
+        <v>1300</v>
       </c>
       <c r="G7" t="n">
-        <v>510</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -662,28 +662,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>大甲金筒13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -691,28 +691,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>大甲金筒12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -720,28 +720,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>大甲金筒10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>報價-大甲金筒4AC(大)(B)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -749,28 +749,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>大甲金筒09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>報價-大甲金筒4AC(中)(B)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G11" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -778,28 +778,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>大甲金筒08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>報價-大甲金筒4AC(小)(B)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G12" t="n">
-        <v>620</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -807,28 +807,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>大甲金筒07-1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G13" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -836,28 +836,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>大甲金筒07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="G14" t="n">
-        <v>240</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -865,28 +865,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>大甲金筒06-1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>120</v>
       </c>
       <c r="G15" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -894,28 +894,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>大甲金筒06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="G16" t="n">
-        <v>4500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -923,28 +923,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鑫東記13</t>
+          <t>大甲金筒05-1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>富貴沉A尺6(香)</t>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -952,28 +952,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>大甲金筒05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="G18" t="n">
-        <v>1600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -981,28 +981,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>大甲金筒04-1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1010,28 +1010,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>大甲金筒04</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1039,28 +1039,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1068,28 +1068,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1097,28 +1097,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="G24" t="n">
-        <v>2850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,28 +1155,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>570</v>
+        <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>2850</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1184,28 +1184,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="G26" t="n">
-        <v>2850</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1213,28 +1213,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="G27" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,28 +1242,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="G28" t="n">
-        <v>1320</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1271,28 +1271,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="G29" t="n">
-        <v>1050</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>205</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>1640</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1329,28 +1329,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>大甲金筒18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>205</v>
+        <v>1500</v>
       </c>
       <c r="G31" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1358,28 +1358,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>大甲金筒11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>3120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1387,28 +1387,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>大甲金筒20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>850</v>
+        <v>1800</v>
       </c>
       <c r="G33" t="n">
-        <v>850</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1416,28 +1416,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>大甲金筒28-1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="G34" t="n">
-        <v>1150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1445,28 +1445,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>大甲金筒41</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="G35" t="n">
-        <v>-810</v>
+        <v>850</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1474,1623 +1474,1623 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>大甲金筒40</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>195</v>
+        <v>750</v>
       </c>
       <c r="G36" t="n">
-        <v>4290</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>大甲金筒39</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>報價-大甲金筒08(特大)(XB)</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>290</v>
+        <v>750</v>
       </c>
       <c r="G37" t="n">
-        <v>290</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>L056</t>
+          <t>大甲金筒38</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>竹彩面五路18支</t>
+          <t>報價-大甲金筒08(LL)(XB)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="G38" t="n">
-        <v>960</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>大甲金筒37</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>報價-大甲金筒08(XL)(XB)</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>810</v>
+        <v>550</v>
       </c>
       <c r="G39" t="n">
-        <v>810</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>大甲金筒21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G40" t="n">
-        <v>460</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>大甲金筒35</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>報價-大甲金筒08(中)(XB)</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="G41" t="n">
-        <v>195</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>大甲金筒34</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>135</v>
+        <v>900</v>
       </c>
       <c r="G42" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>大甲金筒33</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>135</v>
+        <v>800</v>
       </c>
       <c r="G43" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L057</t>
+          <t>大甲金筒32</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>竹彩面土地公18支</t>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="G44" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>大甲金筒31</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>報價-大甲金筒3AC(大)(B)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="G45" t="n">
-        <v>2900</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>大甲金筒30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>報價-大甲金筒3AC(中)(B)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PE304</t>
+          <t>大甲金筒29</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>304大金元寶100盒</t>
+          <t>報價-大甲金筒3AC(小)(B)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="G47" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WB02</t>
+          <t>大甲金筒36</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3號防風燭80入</t>
+          <t>報價-大甲金筒08(大)(XB)</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G48" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>大甲金筒28</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>報價-大甲金筒3A(特大)(B)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G49" t="n">
-        <v>-600</v>
+        <v>850</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>大甲金筒24</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>報價-大甲金筒3A(中)(B)</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>305</v>
+        <v>450</v>
       </c>
       <c r="G50" t="n">
-        <v>1525</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PE0306</t>
+          <t>大甲金筒27-1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>306大金條100盒</t>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="G51" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>大甲金筒22</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>報價-大甲金筒3As(B)</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="G52" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>大甲金筒22-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="G53" t="n">
-        <v>2300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>大甲金筒23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>報價-大甲金筒3A(小)(B)</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="G54" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>I004</t>
+          <t>大甲金筒23-1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>粗甲馬(10支)</t>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="G55" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>大甲金筒24-1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>490</v>
+        <v>90</v>
       </c>
       <c r="G56" t="n">
-        <v>490</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>大甲金筒25</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>報價-大甲金筒3A(大)(B)</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="G57" t="n">
-        <v>870</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>大甲金筒25-1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>870</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>大甲金筒26</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>報價-大甲金筒3A(XL)(B)</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="G59" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>大甲金筒27</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>報價-大甲金筒3A(LL)(B)</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G60" t="n">
-        <v>4000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="G61" t="n">
-        <v>2000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>600</v>
+        <v>205</v>
       </c>
       <c r="G62" t="n">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>日曆(贈送)</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>2040</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>1230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G66" t="n">
-        <v>820</v>
+        <v>630</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L071</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(小)竹銀紙(2只)50支</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
-        <v>2200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="G68" t="n">
-        <v>1125</v>
+        <v>620</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>竹庫錢50支'</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G69" t="n">
-        <v>975</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G70" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="G71" t="n">
-        <v>430</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>G006</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>*粗蓮花銀36支</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G72" t="n">
-        <v>210</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>鑫東記13</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>50S土地公6盒</t>
+          <t>富貴沉A尺6(香)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="G73" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>鑫東記12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>富貴沉A尺3(香)</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="G74" t="n">
-        <v>1125</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>3375</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G76" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="G77" t="n">
-        <v>1450</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="G78" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>120</v>
+        <v>570</v>
       </c>
       <c r="G79" t="n">
-        <v>360</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>720</v>
+        <v>570</v>
       </c>
       <c r="G80" t="n">
-        <v>720</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>粗蓮花金48支</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>225</v>
+        <v>570</v>
       </c>
       <c r="G81" t="n">
-        <v>225</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G82" t="n">
-        <v>50</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="G83" t="n">
-        <v>1525</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G85" t="n">
-        <v>50</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="G86" t="n">
-        <v>50</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="G87" t="n">
-        <v>50</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>B019</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>白毛邊天金50只</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F88" t="n">
-        <v>550</v>
+        <v>810</v>
       </c>
       <c r="G88" t="n">
-        <v>550</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>B018</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>白毛邊壽金50只</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F89" t="n">
-        <v>550</v>
+        <v>195</v>
       </c>
       <c r="G89" t="n">
-        <v>550</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>225</v>
+        <v>850</v>
       </c>
       <c r="G90" t="n">
-        <v>1125</v>
+        <v>850</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G91" t="n">
-        <v>290</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3098,28 +3098,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>G003</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>台中粗福金40支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3127,28 +3127,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>G055</t>
+          <t>L056</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>台北刈金50支</t>
+          <t>竹彩面五路18支</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="G93" t="n">
-        <v>370</v>
+        <v>960</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3156,28 +3156,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>390</v>
+        <v>810</v>
       </c>
       <c r="G94" t="n">
-        <v>390</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3185,28 +3185,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>台中粗銀紙40支</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="G95" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3214,28 +3214,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="G96" t="n">
-        <v>410</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3243,28 +3243,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>G058</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>台北大銀50支</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G97" t="n">
-        <v>370</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3272,28 +3272,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="G98" t="n">
-        <v>1400</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3301,28 +3301,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="G99" t="n">
-        <v>1050</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3330,28 +3330,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="G100" t="n">
-        <v>3150</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3359,51 +3359,1646 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>L057</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>竹彩面土地公18支</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="G101" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>L068</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>(小)竹四方金48支G5-S</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>20</v>
+      </c>
+      <c r="F102" t="n">
+        <v>225</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PE0306</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>306大金條100盒</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15</v>
+      </c>
+      <c r="G103" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>WB02</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3號防風燭80入</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>800</v>
+      </c>
+      <c r="G104" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>WB01</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>(安全)防風燈50對</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>600</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PE304</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>304大金元寶100盒</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025/12/20</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>金白錢各1</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>120</v>
+      </c>
+      <c r="G107" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025/12/20</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>L067</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>(小)竹壽金(十面)20支</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>230</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025/12/20</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>D006</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>(白三色)花仔錢60支</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>430</v>
+      </c>
+      <c r="G109" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>I004</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>粗甲馬(10支)</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>135</v>
+      </c>
+      <c r="G110" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>YE02</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>冥元美金100(30入)</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>490</v>
+      </c>
+      <c r="G111" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>L051</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>竹蓮花金30支G6</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>290</v>
+      </c>
+      <c r="G112" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>L052</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>竹蓮花銀30支G6</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>290</v>
+      </c>
+      <c r="G113" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>竹漿天尺20支</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>490</v>
+      </c>
+      <c r="G114" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>進益1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>R3特級板沉</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>20</v>
+      </c>
+      <c r="F115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>進益2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>R6特級板沉</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>200</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025/12/16</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>WB01</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>(安全)防風燈50對</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>600</v>
+      </c>
+      <c r="G117" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025/12/16</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>日曆(贈送)</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025/12/10</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>WA02</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>(2號)旺6對</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>510</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>台中粗四方60支</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>205</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>台中粗壽金30支</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>205</v>
+      </c>
+      <c r="G121" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>L071</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>(小)竹銀紙(2只)50支</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>220</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>L069</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>(小)竹福金50支G9-S</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>225</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>L045</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>竹庫錢50支'</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>195</v>
+      </c>
+      <c r="G124" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025/12/03</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>L074</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>竹小往生24入</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>230</v>
+      </c>
+      <c r="G125" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025/12/03</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>D006</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>(白三色)花仔錢60支</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>430</v>
+      </c>
+      <c r="G126" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>G006</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>*粗蓮花銀36支</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>210</v>
+      </c>
+      <c r="G127" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D003</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>(紅)補運錢40支</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>305</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>L064</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>竹大壽生6入</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>230</v>
+      </c>
+      <c r="G129" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>L055</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>竹壽金(5只)30支</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>290</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>L068</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>(小)竹四方金48支G5-S</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>15</v>
+      </c>
+      <c r="F131" t="n">
+        <v>225</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>L069</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>(小)竹福金50支G9-S</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>225</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PE505</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>50S土地公6盒</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>700</v>
+      </c>
+      <c r="G133" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>粗蓮花金48支</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>225</v>
+      </c>
+      <c r="G134" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>太極(5張)</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>720</v>
+      </c>
+      <c r="G135" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TA18</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>B159男休閒鞋30入</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>50</v>
+      </c>
+      <c r="G136" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>A650男西裝40入</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>60</v>
+      </c>
+      <c r="G137" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>A631男恤衫40入</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>50</v>
+      </c>
+      <c r="G138" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>TA10</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>A634男名牌LV裝40入</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>50</v>
+      </c>
+      <c r="G139" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>L037</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>台北環保壽金48支</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>120</v>
+      </c>
+      <c r="G140" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>TA22</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>B165男波鞋30入</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>L038</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>台北環保刈金48支</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>120</v>
+      </c>
+      <c r="G142" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025/11/27</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>B018</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>白毛邊壽金50只</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>550</v>
+      </c>
+      <c r="G143" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025/11/27</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>B019</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>白毛邊天金50只</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>550</v>
+      </c>
+      <c r="G144" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>壽生(6千)</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>290</v>
+      </c>
+      <c r="G145" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>L069</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>(小)竹福金50支G9-S</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>225</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>台中粗福金40支</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>170</v>
+      </c>
+      <c r="G147" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>台中粗壽金30支</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>205</v>
+      </c>
+      <c r="G148" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>J019</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>(四方)地藏王30支</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>390</v>
+      </c>
+      <c r="G149" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>G055</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>台北刈金50支</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>185</v>
+      </c>
+      <c r="G150" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>G058</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>台北大銀50支</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>185</v>
+      </c>
+      <c r="G151" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>台中粗銀紙40支</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>170</v>
+      </c>
+      <c r="G152" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>2025/11/13</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C102" t="inlineStr">
+      <c r="B153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>鑫東記01</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>微煙10A香環(60入)</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="E153" t="n">
         <v>1</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F153" t="n">
         <v>45</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G153" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鑫東記02</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>120</v>
+      </c>
+      <c r="G154" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鑫東記04</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>板沉尺3(香)</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>30</v>
+      </c>
+      <c r="F155" t="n">
+        <v>105</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>鑫東記05</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>板沉尺6(香)</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>105</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>20</v>
+      </c>
+      <c r="F157" t="n">
+        <v>70</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +5126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4545,210 +6140,1035 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>105</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>大甲金筒04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>大甲金筒04-1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>大甲金筒05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>大甲金筒05-1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>大甲金筒06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>大甲金筒06-1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>大甲金筒07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>大甲金筒07-1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>大甲金筒08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>大甲金筒09</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>大甲金筒10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>大甲金筒11</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>大甲金筒12</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>大甲金筒13</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>大甲金筒14</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大甲金筒15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>大甲金筒16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>大甲金筒17</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>大甲金筒18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>大甲金筒19</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>大甲金筒20</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>大甲金筒21</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>大甲金筒22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>大甲金筒22-1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>大甲金筒23</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>大甲金筒23-1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>大甲金筒24</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>大甲金筒24-1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>大甲金筒25</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大甲金筒25-1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>大甲金筒26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>大甲金筒27</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>大甲金筒27-1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>大甲金筒28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>大甲金筒28-1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>大甲金筒29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>大甲金筒30</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>大甲金筒31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>大甲金筒32</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>大甲金筒33</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>大甲金筒34</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>大甲金筒35</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(中)(XB)</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>大甲金筒36</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(大)(XB)</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>大甲金筒37</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(XL)(XB)</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>大甲金筒38</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(LL)(XB)</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>大甲金筒39</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(特大)(XB)</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>大甲金筒40</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>大甲金筒41</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>大甲金筒42</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>進益1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>R3特級板沉</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>進益2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>R6特級板沉</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>鑫東記01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>微煙10A香環(60入)</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>鑫東記02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>鑫東記04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>板沉尺3(香)</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>鑫東記05</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>板沉尺6(香)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C136" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4763,7 +7183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6291,16 +8711,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86">
@@ -6309,16 +8729,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
@@ -6327,16 +8747,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88">
@@ -6345,12 +8765,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -6363,16 +8783,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
@@ -6381,12 +8801,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -6399,15 +8819,1005 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>大甲金筒04</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>大甲金筒04-1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>大甲金筒05</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>大甲金筒05-1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>大甲金筒06</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>大甲金筒06-1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>大甲金筒07</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>大甲金筒07-1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>大甲金筒08</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>大甲金筒09</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>大甲金筒10</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>大甲金筒11</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>大甲金筒12</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>大甲金筒13</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>大甲金筒14</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>大甲金筒15</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>大甲金筒16</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>大甲金筒17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>大甲金筒18</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>大甲金筒19</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>大甲金筒20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>大甲金筒21</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>大甲金筒22</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>大甲金筒22-1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>大甲金筒23</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>大甲金筒23-1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>大甲金筒24</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>大甲金筒24-1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>大甲金筒25</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>大甲金筒25-1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>大甲金筒26</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>大甲金筒27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>大甲金筒27-1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>大甲金筒28</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>大甲金筒28-1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>大甲金筒29</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>大甲金筒30</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>大甲金筒31</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>大甲金筒32</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>大甲金筒33</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>大甲金筒34</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>大甲金筒35</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(中)(XB)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>大甲金筒36</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(大)(XB)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>大甲金筒37</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(XL)(XB)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>大甲金筒38</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(LL)(XB)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>大甲金筒39</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(特大)(XB)</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>大甲金筒40</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>大甲金筒41</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>大甲金筒42</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D146" t="n">
         <v>80</v>
       </c>
     </row>
@@ -6422,7 +9832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7950,16 +11360,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86">
@@ -7968,16 +11378,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
@@ -7986,16 +11396,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88">
@@ -8004,12 +11414,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -8022,16 +11432,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
@@ -8040,12 +11450,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -8058,15 +11468,1005 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>大甲金筒04</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>大甲金筒04-1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>大甲金筒05</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>大甲金筒05-1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>大甲金筒06</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>大甲金筒06-1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>大甲金筒07</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>大甲金筒07-1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>大甲金筒08</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>大甲金筒09</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>大甲金筒10</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>大甲金筒11</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>大甲金筒12</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>大甲金筒13</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>大甲金筒14</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>大甲金筒15</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>大甲金筒16</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>大甲金筒17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>大甲金筒18</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>大甲金筒19</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>大甲金筒20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>大甲金筒21</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>大甲金筒22</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>大甲金筒22-1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>大甲金筒23</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>大甲金筒23-1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>大甲金筒24</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>大甲金筒24-1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>大甲金筒25</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>大甲金筒25-1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>大甲金筒26</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>大甲金筒27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>大甲金筒27-1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>大甲金筒28</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>大甲金筒28-1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>大甲金筒29</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>大甲金筒30</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>大甲金筒31</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>大甲金筒32</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>大甲金筒33</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>大甲金筒34</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>大甲金筒35</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(中)(XB)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>大甲金筒36</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(大)(XB)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>大甲金筒37</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(XL)(XB)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>大甲金筒38</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(LL)(XB)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>大甲金筒39</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(特大)(XB)</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>大甲金筒40</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>大甲金筒41</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>大甲金筒42</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D146" t="n">
         <v>80</v>
       </c>
     </row>
@@ -8081,7 +12481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9434,280 +13834,1380 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>105</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>大甲金筒04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>大甲金筒04-1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>大甲金筒05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>大甲金筒05-1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>大甲金筒06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>大甲金筒06-1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>大甲金筒07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>大甲金筒07-1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>大甲金筒08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>大甲金筒09</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>大甲金筒10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>大甲金筒11</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>大甲金筒12</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>大甲金筒13</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>大甲金筒14</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大甲金筒15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>大甲金筒16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>大甲金筒17</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>大甲金筒18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>大甲金筒19</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>大甲金筒20</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>大甲金筒21</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>大甲金筒22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>大甲金筒22-1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>大甲金筒23</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>大甲金筒23-1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>大甲金筒24</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>大甲金筒24-1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>大甲金筒25</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大甲金筒25-1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>大甲金筒26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>大甲金筒27</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>大甲金筒27-1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>大甲金筒28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>大甲金筒28-1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>大甲金筒29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(小)(B)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>大甲金筒30</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(中)(B)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>大甲金筒31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(大)(B)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>大甲金筒32</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>大甲金筒33</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>大甲金筒34</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>大甲金筒35</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(中)(XB)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>大甲金筒36</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(大)(XB)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>大甲金筒37</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(XL)(XB)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>大甲金筒38</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(LL)(XB)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>大甲金筒39</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒08(特大)(XB)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>大甲金筒40</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>大甲金筒41</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>大甲金筒42</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>進益1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>R3特級板沉</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>進益2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>R6特級板沉</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>鑫東記01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>微煙10A香環(60入)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>鑫東記02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>鑫東記04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>板沉尺3(香)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>鑫東記05</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>板沉尺6(香)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>鑫東記07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>桂香尺3(40斤)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>2026/01/15</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D136" t="n">
         <v>80</v>
       </c>
     </row>

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1號旺3對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1號旺3對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1號旺3對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1號旺3對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1號旺3對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2號旺6對</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,22 +517,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NIL0212</t>
+          <t>PE504</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>竹大壽金20支</t>
+          <t>504五路6盒</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>420</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4">
@@ -546,22 +546,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PE306</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>306大金條100盒</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="5">
@@ -575,22 +575,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PE304</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>304大金元寶100盒</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6">
@@ -604,22 +604,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>LA05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>(麒麟)竹銀紙(2只)50支</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G6" t="n">
-        <v>820</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="7">
@@ -633,22 +633,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="G7" t="n">
-        <v>1025</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>505土地公6盒</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="G8" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9">
@@ -691,22 +691,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PE504</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>504五路6盒</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="G9" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="10">
@@ -720,22 +720,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>505土地公6盒</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>290</v>
+        <v>700</v>
       </c>
       <c r="G10" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="11">
@@ -749,22 +749,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G11" t="n">
-        <v>1450</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12">
@@ -778,22 +778,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G12" t="n">
-        <v>2900</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13">
@@ -807,22 +807,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LA05</t>
+          <t>PE304</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(麒麟)竹銀紙(2只)50支</t>
+          <t>304大金元寶100盒</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>2250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>PE306</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>306大金條100盒</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
@@ -865,22 +865,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>竹大壽金20支</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="G15" t="n">
-        <v>2480</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
@@ -894,22 +894,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>百豐002430</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>紅色花袋半斤10包/串</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="G16" t="n">
-        <v>4600</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -952,22 +952,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TT04</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>小元寶400入</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="G18" t="n">
-        <v>800</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1002,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1010,28 +1010,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RD22</t>
+          <t>TT04</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(三元)TG2-沉-香環60盒紫S-08</t>
+          <t>小元寶400入</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>-300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1039,28 +1039,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RD21</t>
+          <t>百豐002432</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(三元)TG1-沉-香環60盒藍S-05</t>
+          <t>紅色花袋2斤10包/串</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="G21" t="n">
-        <v>-200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1068,28 +1068,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RD20</t>
+          <t>百豐002431</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(三元)東加-老山-AA香環60盒S-07</t>
+          <t>紅色花袋1斤10包/串</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G22" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1097,28 +1097,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WA03</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3號旺(鳳梨蠟燭)12對</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>520</v>
+        <v>108</v>
       </c>
       <c r="G23" t="n">
-        <v>1040</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="G24" t="n">
-        <v>615</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,28 +1155,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PE118</t>
+          <t>RD22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>118長版五彩發財36盒</t>
+          <t>(三元)TG2-沉-香環60盒紫S-08</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="G25" t="n">
-        <v>660</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1184,28 +1184,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>RD21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>(三元)TG1-沉-香環60盒藍S-05</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F26" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>2300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1213,28 +1213,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>RD20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>(三元)東加-老山-AA香環60盒S-07</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G27" t="n">
-        <v>2300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,28 +1242,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>WA03</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>3號旺(鳳梨蠟燭)12對</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>230</v>
+        <v>520</v>
       </c>
       <c r="G28" t="n">
-        <v>1150</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1271,22 +1271,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G29" t="n">
-        <v>2900</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>PE118</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>118長版五彩發財36盒</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>195</v>
+        <v>660</v>
       </c>
       <c r="G30" t="n">
-        <v>975</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31">
@@ -1329,22 +1329,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PE173</t>
+          <t>L067</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>173地基紅包30入</t>
+          <t>(小)竹壽金(十面)20支</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="G31" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="32">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1387,22 +1387,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N009</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>飯春(300支)</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="G33" t="n">
-        <v>130</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="34">
@@ -1416,22 +1416,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RE02</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>尺6(本色)桂香40斤</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>1080</v>
+        <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>1080</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35">
@@ -1445,22 +1445,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RA08</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="G35" t="n">
-        <v>1050</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="36">
@@ -1474,22 +1474,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RE01</t>
+          <t>PE173</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>尺3(本色)桂香40斤</t>
+          <t>173地基紅包30入</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="G36" t="n">
-        <v>1080</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WA01</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1號旺(鳳梨蠟燭)3對</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="G37" t="n">
-        <v>3120</v>
+        <v>975</v>
       </c>
     </row>
     <row r="38">
@@ -1532,28 +1532,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>N009</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2號旺(鳳梨蠟燭)6對</t>
+          <t>飯春(300支)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="G38" t="n">
-        <v>3120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1561,28 +1561,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>RE01</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>尺3(本色)桂香40斤</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="G39" t="n">
-        <v>720</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1590,28 +1590,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>RE02</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>尺6(本色)桂香40斤</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>290</v>
+        <v>1080</v>
       </c>
       <c r="G40" t="n">
-        <v>1450</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1619,28 +1619,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>RA08</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G41" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1648,28 +1648,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>WA01</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="G42" t="n">
-        <v>780</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>505土地公補財庫盒裝6盒</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="G43" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="44">
@@ -1706,28 +1706,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LS26</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1000公分環保炮12入</t>
+          <t>太極(5張)</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2200</v>
+        <v>720</v>
       </c>
       <c r="G44" t="n">
-        <v>2200</v>
+        <v>720</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1735,28 +1735,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大甲金筒07-1</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="G45" t="n">
-        <v>150</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1764,28 +1764,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大甲金筒18</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>290</v>
       </c>
       <c r="G46" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1793,28 +1793,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>大甲金筒17</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1400</v>
+        <v>390</v>
       </c>
       <c r="G47" t="n">
-        <v>1400</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1822,28 +1822,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大甲金筒16</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(15*20)(一般)</t>
+          <t>505土地公補財庫盒裝6盒</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G48" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1851,22 +1851,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>大甲金筒15</t>
+          <t>LS26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(13*20)(一般)</t>
+          <t>1000公分環保炮12入</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="G49" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="50">
@@ -1880,22 +1880,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大甲金筒14</t>
+          <t>大甲金筒10</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(12*16)(一般)</t>
+          <t>報價-大甲金筒4AC(大)(B)</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="G50" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
@@ -1909,22 +1909,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大甲金筒13</t>
+          <t>大甲金筒21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(特大)(B)</t>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="G51" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="52">
@@ -1938,22 +1938,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大甲金筒19</t>
+          <t>大甲金筒20</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G52" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="53">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大甲金筒12</t>
+          <t>大甲金筒19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(LL)(B)</t>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="G53" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54">
@@ -1996,22 +1996,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大甲金筒11</t>
+          <t>大甲金筒18</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(XL)(B)</t>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大甲金筒10</t>
+          <t>大甲金筒17</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(大)(B)</t>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="G55" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="56">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大甲金筒09</t>
+          <t>大甲金筒16</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(中)(B)</t>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57">
@@ -2083,22 +2083,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大甲金筒08</t>
+          <t>大甲金筒15</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(小)(B)</t>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="G57" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="58">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大甲金筒04-1</t>
+          <t>大甲金筒14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>90</v>
+        <v>1300</v>
       </c>
       <c r="G58" t="n">
-        <v>90</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="59">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大甲金筒07</t>
+          <t>大甲金筒13</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G59" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60">
@@ -2170,22 +2170,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>大甲金筒06-1</t>
+          <t>大甲金筒12</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G60" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61">
@@ -2199,22 +2199,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大甲金筒06</t>
+          <t>大甲金筒11</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="G61" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -2228,22 +2228,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大甲金筒05-1</t>
+          <t>大甲金筒06</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="G62" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63">
@@ -2257,22 +2257,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大甲金筒05</t>
+          <t>大甲金筒09</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
+          <t>報價-大甲金筒4AC(中)(B)</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G63" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64">
@@ -2286,22 +2286,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大甲金筒04</t>
+          <t>大甲金筒08</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
+          <t>報價-大甲金筒4AC(小)(B)</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G64" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65">
@@ -2315,22 +2315,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大甲金筒03-1</t>
+          <t>大甲金筒07-1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G65" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66">
@@ -2344,22 +2344,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大甲金筒03</t>
+          <t>大甲金筒07</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="G66" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67">
@@ -2373,22 +2373,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大甲金筒02-1</t>
+          <t>大甲金筒06-1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -2402,22 +2402,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大甲金筒02</t>
+          <t>大甲金筒22-1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="G68" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
@@ -2431,22 +2431,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大甲金筒01-1</t>
+          <t>大甲金筒05-1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -2460,22 +2460,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大甲金筒21</t>
+          <t>大甲金筒05</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1900</v>
+        <v>450</v>
       </c>
       <c r="G70" t="n">
-        <v>1900</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大甲金筒20</t>
+          <t>大甲金筒04-1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1800</v>
+        <v>90</v>
       </c>
       <c r="G71" t="n">
-        <v>1800</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大甲金筒37</t>
+          <t>大甲金筒04</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(XL)(XB)</t>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="G72" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大甲金筒22</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3As(B)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="G73" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -2576,22 +2576,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大甲金筒22-1</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3As(B)(蓋子)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="G74" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大甲金筒42</t>
+          <t>大甲金筒22</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>報價-大甲金筒C1(尺6)(C)</t>
+          <t>報價-大甲金筒3As(B)</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G75" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大甲金筒40</t>
+          <t>大甲金筒23</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>報價-大甲金筒C1(尺2)(C)</t>
+          <t>報價-大甲金筒3A(小)(B)</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78">
@@ -2692,22 +2692,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大甲金筒39</t>
+          <t>大甲金筒23-1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(特大)(XB)</t>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="G78" t="n">
-        <v>750</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
@@ -2721,22 +2721,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大甲金筒38</t>
+          <t>大甲金筒42</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(LL)(XB)</t>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="G79" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80">
@@ -2750,22 +2750,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>X001</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B大壽黃500張</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81">
@@ -2779,22 +2779,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大甲金筒36</t>
+          <t>大甲金筒40</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(大)(XB)</t>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G81" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82">
@@ -2808,22 +2808,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大甲金筒35</t>
+          <t>大甲金筒39</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(中)(XB)</t>
+          <t>報價-大甲金筒08(特大)(XB)</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="G82" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83">
@@ -2837,22 +2837,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大甲金筒34</t>
+          <t>大甲金筒38</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(特大)(B)</t>
+          <t>報價-大甲金筒08(LL)(XB)</t>
         </is>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="G83" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84">
@@ -2866,22 +2866,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大甲金筒33</t>
+          <t>大甲金筒37</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(LL)(B)</t>
+          <t>報價-大甲金筒08(XL)(XB)</t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G84" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85">
@@ -2895,22 +2895,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大甲金筒32</t>
+          <t>大甲金筒36</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(XL)(B)</t>
+          <t>報價-大甲金筒08(大)(XB)</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -2924,22 +2924,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大甲金筒31</t>
+          <t>大甲金筒35</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(大)(B)</t>
+          <t>報價-大甲金筒08(中)(XB)</t>
         </is>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G86" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87">
@@ -2953,22 +2953,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大甲金筒30</t>
+          <t>大甲金筒34</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(中)(B)</t>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G87" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88">
@@ -2982,22 +2982,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大甲金筒29</t>
+          <t>大甲金筒33</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(小)(B)</t>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G88" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89">
@@ -3011,22 +3011,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大甲金筒28-1</t>
+          <t>大甲金筒32</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="G89" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90">
@@ -3040,22 +3040,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>大甲金筒28</t>
+          <t>大甲金筒31</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(特大)(B)</t>
+          <t>報價-大甲金筒3AC(大)(B)</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="G90" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91">
@@ -3069,22 +3069,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>大甲金筒27-1</t>
+          <t>大甲金筒30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+          <t>報價-大甲金筒3AC(中)(B)</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="G91" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92">
@@ -3098,22 +3098,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>大甲金筒27</t>
+          <t>大甲金筒29</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(LL)(B)</t>
+          <t>報價-大甲金筒3AC(小)(B)</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="G92" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
@@ -3127,22 +3127,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>大甲金筒26</t>
+          <t>大甲金筒28-1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(XL)(B)</t>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="G93" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
@@ -3156,22 +3156,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>大甲金筒25-1</t>
+          <t>大甲金筒28</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(特大)(B)</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="G94" t="n">
-        <v>100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="95">
@@ -3185,22 +3185,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>大甲金筒25</t>
+          <t>大甲金筒27-1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(大)(B)</t>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="G95" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
@@ -3214,22 +3214,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>大甲金筒24-1</t>
+          <t>大甲金筒27</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(LL)(B)</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="G96" t="n">
-        <v>90</v>
+        <v>750</v>
       </c>
     </row>
     <row r="97">
@@ -3243,22 +3243,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>大甲金筒24</t>
+          <t>大甲金筒26</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(中)(B)</t>
+          <t>報價-大甲金筒3A(XL)(B)</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="G97" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98">
@@ -3272,22 +3272,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>大甲金筒23-1</t>
+          <t>大甲金筒25-1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -3301,22 +3301,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>大甲金筒23</t>
+          <t>大甲金筒25</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(小)(B)</t>
+          <t>報價-大甲金筒3A(大)(B)</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100">
@@ -3330,22 +3330,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>大甲金筒01</t>
+          <t>大甲金筒24-1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4As(9吋)(B)</t>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="G100" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
@@ -3359,22 +3359,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>大甲金筒24</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>報價-大甲金筒3A(中)(B)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="G101" t="n">
-        <v>1550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102">
@@ -3388,22 +3388,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="G102" t="n">
-        <v>2300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
@@ -3417,28 +3417,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>RE32</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>尺3微煙TG3沉(1.1)10斤</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="G103" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3446,28 +3446,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="G104" t="n">
-        <v>615</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3475,28 +3475,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="G105" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3504,28 +3504,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E106" t="n">
         <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="G106" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3533,28 +3533,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3562,22 +3562,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>210</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>630</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="109">
@@ -3591,22 +3591,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
-        <v>1000</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110">
@@ -3620,22 +3620,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="G110" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111">
@@ -3649,22 +3649,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="G111" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112">
@@ -3678,22 +3678,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G112" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -3707,22 +3707,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G113" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
@@ -3736,28 +3736,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
-        <v>4500</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3765,28 +3765,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>鑫東記13</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>富貴沉A尺6(香)</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="G115" t="n">
-        <v>800</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3794,28 +3794,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="G116" t="n">
-        <v>1600</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3823,28 +3823,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G117" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3852,28 +3852,28 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G118" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F119" t="n">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
-        <v>70</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="120">
@@ -3910,22 +3910,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記13</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>富貴沉A尺6(香)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G120" t="n">
-        <v>28</v>
+        <v>800</v>
       </c>
     </row>
     <row r="121">
@@ -3939,28 +3939,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記12</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>富貴沉A尺3(香)</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F121" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>28</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3968,28 +3968,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>2850</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3997,28 +3997,28 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="G123" t="n">
-        <v>2850</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4026,28 +4026,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="G124" t="n">
-        <v>2850</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4055,28 +4055,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="G125" t="n">
-        <v>1050</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4084,28 +4084,28 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>440</v>
+        <v>28</v>
       </c>
       <c r="G126" t="n">
-        <v>1320</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4113,28 +4113,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="G127" t="n">
-        <v>390</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4142,28 +4142,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F128" t="n">
-        <v>205</v>
+        <v>570</v>
       </c>
       <c r="G128" t="n">
-        <v>1640</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4171,28 +4171,28 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F129" t="n">
-        <v>205</v>
+        <v>570</v>
       </c>
       <c r="G129" t="n">
-        <v>1640</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4200,28 +4200,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="G130" t="n">
-        <v>3120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4229,28 +4229,28 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="G131" t="n">
-        <v>1150</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4258,28 +4258,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>810</v>
+        <v>350</v>
       </c>
       <c r="G132" t="n">
-        <v>-810</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4287,28 +4287,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F133" t="n">
-        <v>850</v>
+        <v>205</v>
       </c>
       <c r="G133" t="n">
-        <v>850</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4316,61 +4316,61 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F134" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G134" t="n">
-        <v>4290</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F135" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G135" t="n">
-        <v>460</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4383,106 +4383,106 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F136" t="n">
         <v>810</v>
       </c>
       <c r="G136" t="n">
-        <v>810</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="G137" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>L056</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>竹彩面五路18支</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F138" t="n">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="G138" t="n">
-        <v>960</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="G139" t="n">
-        <v>195</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4490,28 +4490,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>135</v>
+        <v>810</v>
       </c>
       <c r="G140" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4519,28 +4519,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="G141" t="n">
-        <v>675</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4548,28 +4548,28 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G142" t="n">
-        <v>1525</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4577,28 +4577,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>L056</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>竹彩面五路18支</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G143" t="n">
-        <v>2900</v>
+        <v>960</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4606,28 +4606,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L057</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>竹彩面土地公18支</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="G144" t="n">
-        <v>640</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4635,28 +4635,28 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G145" t="n">
-        <v>4500</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PE304</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>304大金元寶100盒</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="G146" t="n">
-        <v>200</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147">
@@ -4722,22 +4722,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
-        <v>-600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="149">
@@ -4751,28 +4751,28 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PE0306</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>306大金條100盒</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F149" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="G149" t="n">
-        <v>150</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4780,28 +4780,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>L057</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>竹彩面土地公18支</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="G150" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4809,28 +4809,28 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F151" t="n">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="G151" t="n">
-        <v>2300</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4838,28 +4838,28 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F152" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="G152" t="n">
-        <v>430</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4867,28 +4867,28 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>I004</t>
+          <t>PE304</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>粗甲馬(10支)</t>
+          <t>304大金元寶100盒</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F153" t="n">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G153" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4896,28 +4896,28 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>PE0306</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>306大金條100盒</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F154" t="n">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="G154" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4925,28 +4925,28 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>金白錢各1</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="G155" t="n">
-        <v>870</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4954,28 +4954,28 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>L067</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>(小)竹壽金(十面)20支</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F156" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G156" t="n">
-        <v>870</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4983,28 +4983,28 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E157" t="n">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="G157" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5012,28 +5012,28 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>I004</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>粗甲馬(10支)</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="G158" t="n">
-        <v>2000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5041,28 +5041,28 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>YE02</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>冥元美金100(30入)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="G159" t="n">
-        <v>4000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5070,28 +5070,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="G160" t="n">
-        <v>600</v>
+        <v>870</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5099,28 +5099,28 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>日曆(贈送)</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -5128,28 +5128,28 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>竹漿天尺20支</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="G162" t="n">
-        <v>2040</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5157,28 +5157,28 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F163" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G163" t="n">
-        <v>820</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5186,28 +5186,28 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F164" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G164" t="n">
-        <v>1230</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5215,28 +5215,28 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>L071</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>(小)竹銀紙(2只)50支</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="G165" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5244,28 +5244,28 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>日曆(贈送)</t>
         </is>
       </c>
       <c r="E166" t="n">
         <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5273,28 +5273,28 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>竹庫錢50支'</t>
+          <t>(2號)旺6對</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>195</v>
+        <v>510</v>
       </c>
       <c r="G167" t="n">
-        <v>975</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5302,28 +5302,28 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F168" t="n">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G168" t="n">
-        <v>460</v>
+        <v>820</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5331,28 +5331,28 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F169" t="n">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="G169" t="n">
-        <v>430</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5360,28 +5360,28 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>L071</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>粗蓮花金48支</t>
+          <t>(小)竹銀紙(2只)50支</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F170" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G170" t="n">
-        <v>225</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5389,28 +5389,28 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="G171" t="n">
-        <v>720</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5418,28 +5418,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>竹庫錢50支'</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F172" t="n">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="G172" t="n">
-        <v>240</v>
+        <v>975</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5447,28 +5447,28 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="G173" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5476,22 +5476,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="G174" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175">
@@ -5505,22 +5505,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>G007</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>粗蓮花金48支</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="G175" t="n">
-        <v>1450</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176">
@@ -5534,22 +5534,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>太極(5張)</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>225</v>
+        <v>720</v>
       </c>
       <c r="G176" t="n">
-        <v>3375</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177">
@@ -5563,22 +5563,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="G177" t="n">
-        <v>1125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178">
@@ -5592,22 +5592,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>50S土地公6盒</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F178" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="G178" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179">
@@ -5621,22 +5621,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>G006</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>*粗蓮花銀36支</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G179" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180">
@@ -5650,22 +5650,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="G180" t="n">
-        <v>50</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="181">
@@ -5679,22 +5679,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F181" t="n">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="G181" t="n">
-        <v>1525</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="182">
@@ -5708,22 +5708,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="G182" t="n">
-        <v>50</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="183">
@@ -5737,22 +5737,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>50S土地公6盒</t>
         </is>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="G183" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
     </row>
     <row r="184">
@@ -5766,22 +5766,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>G006</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>*粗蓮花銀36支</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="G184" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185">
@@ -5795,28 +5795,28 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>TA10</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>A634男名牌LV裝40入</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G185" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5824,28 +5824,28 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>B019</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>白毛邊天金50只</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F186" t="n">
-        <v>550</v>
+        <v>305</v>
       </c>
       <c r="G186" t="n">
-        <v>550</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5853,28 +5853,28 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>B018</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>白毛邊壽金50只</t>
+          <t>A631男恤衫40入</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G187" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -5882,28 +5882,28 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>TA18</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>B159男休閒鞋30入</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="G188" t="n">
-        <v>1125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -5911,28 +5911,28 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>TA22</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>B165男波鞋30入</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="G189" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -5940,28 +5940,28 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>台中粗銀紙40支</t>
+          <t>A650男西裝40入</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="G190" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5969,28 +5969,28 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>B019</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>白毛邊天金50只</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G191" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5998,28 +5998,28 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>G003</t>
+          <t>B018</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>台中粗福金40支</t>
+          <t>白毛邊壽金50只</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="G192" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6027,28 +6027,28 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F193" t="n">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G193" t="n">
-        <v>410</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -6056,22 +6056,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>G055</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>台北刈金50支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="G194" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195">
@@ -6085,28 +6085,28 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>G058</t>
+          <t>G004</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>台北大銀50支</t>
+          <t>台中粗銀紙40支</t>
         </is>
       </c>
       <c r="E195" t="n">
         <v>2</v>
       </c>
       <c r="F195" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G195" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -6114,28 +6114,28 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
-        <v>3150</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6143,28 +6143,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>G003</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>台中粗福金40支</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G197" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6172,28 +6172,28 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="G198" t="n">
-        <v>1050</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6201,28 +6201,28 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>G055</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>台北刈金50支</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F199" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="G199" t="n">
-        <v>1400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6230,21 +6230,166 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>G058</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>台北大銀50支</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>185</v>
+      </c>
+      <c r="G200" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>鑫東記04</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>板沉尺3(香)</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>30</v>
+      </c>
+      <c r="F201" t="n">
+        <v>105</v>
+      </c>
+      <c r="G201" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>鑫東記02</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>120</v>
+      </c>
+      <c r="G202" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鑫東記05</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>板沉尺6(香)</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>10</v>
+      </c>
+      <c r="F203" t="n">
+        <v>105</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>20</v>
+      </c>
+      <c r="F204" t="n">
+        <v>70</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>鑫東記01</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>微煙10A香環(60入)</t>
         </is>
       </c>
-      <c r="E200" t="n">
+      <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F205" t="n">
         <v>45</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G205" t="n">
         <v>45</v>
       </c>
     </row>
@@ -6431,7 +6576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8615,210 +8760,285 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>百豐002430</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>紅色花袋半斤10包/串</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>百豐002431</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>紅色花袋1斤10包/串</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>百豐002432</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>紅色花袋2斤10包/串</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="C164" t="n">
         <v>80</v>
       </c>
     </row>
@@ -8833,7 +9053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11873,16 +12093,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>百豐002430</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>紅色花袋半斤10包/串</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
@@ -11891,16 +12111,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>百豐002431</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>紅色花袋1斤10包/串</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171">
@@ -11909,16 +12129,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>百豐002432</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>紅色花袋2斤10包/串</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172">
@@ -11927,16 +12147,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173">
@@ -11945,16 +12165,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174">
@@ -11963,16 +12183,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
@@ -11981,15 +12201,105 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D180" t="n">
         <v>80</v>
       </c>
     </row>
@@ -12004,7 +12314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15044,16 +15354,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>百豐002430</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>紅色花袋半斤10包/串</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
@@ -15062,16 +15372,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>百豐002431</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>紅色花袋1斤10包/串</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171">
@@ -15080,16 +15390,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>百豐002432</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>紅色花袋2斤10包/串</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172">
@@ -15098,16 +15408,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173">
@@ -15116,16 +15426,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174">
@@ -15134,16 +15444,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
@@ -15152,15 +15462,105 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D180" t="n">
         <v>80</v>
       </c>
     </row>
@@ -15175,7 +15575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18048,252 +18448,252 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>百豐002430</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>紅色花袋半斤10包/串</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>百豐002431</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>紅色花袋1斤10包/串</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>百豐002432</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>紅色花袋2斤10包/串</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18302,26 +18702,126 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>鑫東記08</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>桂香尺6(40斤)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>鑫東記09</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>鑫東記10</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>A特沉料尺6(40斤)(香)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>鑫東記11</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>四季10香環(60入)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>2026/01/15</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D162" t="n">
         <v>80</v>
       </c>
     </row>

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,12 +1097,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>百豐002434</t>
+          <t>百豐002433</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>紅色花袋4斤10包/串</t>
+          <t>紅色花袋3斤10包/串</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>百豐002435</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>紅色花袋5斤10包/串</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>108</v>
       </c>
       <c r="G24" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026/02/10</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,22 +1155,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RD22</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(三元)TG2-沉-香環60盒紫S-08</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="G25" t="n">
-        <v>-300</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
@@ -1184,22 +1184,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RD21</t>
+          <t>RD22</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(三元)TG1-沉-香環60盒藍S-05</t>
+          <t>(三元)TG2-沉-香環60盒紫S-08</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>-1</v>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G26" t="n">
-        <v>-200</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="27">
@@ -1213,22 +1213,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RD20</t>
+          <t>RD21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(三元)東加-老山-AA香環60盒S-07</t>
+          <t>(三元)TG1-沉-香環60盒藍S-05</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G27" t="n">
-        <v>150</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="28">
@@ -1242,22 +1242,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WA03</t>
+          <t>RD20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3號旺(鳳梨蠟燭)12對</t>
+          <t>(三元)東加-老山-AA香環60盒S-07</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>1040</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -1271,28 +1271,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>WA03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>3號旺(鳳梨蠟燭)12對</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>205</v>
+        <v>520</v>
       </c>
       <c r="G29" t="n">
-        <v>615</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026/02/09</t>
+          <t>2026/02/10</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PE118</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>118長版五彩發財36盒</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>660</v>
+        <v>205</v>
       </c>
       <c r="G30" t="n">
-        <v>660</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31">
@@ -1329,22 +1329,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>PE118</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>118長版五彩發財36盒</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="G31" t="n">
-        <v>2300</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L067</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>(小)竹壽金(十面)20支</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1416,22 +1416,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
         <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>1150</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="35">
@@ -1445,22 +1445,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G35" t="n">
-        <v>2900</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="36">
@@ -1474,22 +1474,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PE173</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>173地基紅包30入</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="G36" t="n">
-        <v>900</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="37">
@@ -1532,22 +1532,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N009</t>
+          <t>PE173</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>飯春(300支)</t>
+          <t>173地基紅包30入</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="G38" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RE01</t>
+          <t>N009</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>尺3(本色)桂香40斤</t>
+          <t>飯春(300支)</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1080</v>
+        <v>130</v>
       </c>
       <c r="G39" t="n">
-        <v>1080</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RE02</t>
+          <t>RE01</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>尺6(本色)桂香40斤</t>
+          <t>尺3(本色)桂香40斤</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1619,22 +1619,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RA08</t>
+          <t>RE02</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>尺6(本色)桂香40斤</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>350</v>
+        <v>1080</v>
       </c>
       <c r="G41" t="n">
-        <v>1050</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="42">
@@ -1648,22 +1648,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WA01</t>
+          <t>RA08</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1號旺(鳳梨蠟燭)3對</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="G42" t="n">
-        <v>3120</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="43">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>WA01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2號旺(鳳梨蠟燭)6對</t>
+          <t>1號旺(鳳梨蠟燭)3對</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1698,7 +1698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/02/03</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="G44" t="n">
-        <v>720</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="45">
@@ -1735,22 +1735,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>太極(5張)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>290</v>
+        <v>720</v>
       </c>
       <c r="G45" t="n">
-        <v>1450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1793,22 +1793,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="G47" t="n">
-        <v>780</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="48">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>505土地公補財庫盒裝6盒</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="G48" t="n">
-        <v>1400</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49">
@@ -1872,7 +1872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/29</t>
+          <t>2026/02/03</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1880,22 +1880,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大甲金筒10</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(大)(B)</t>
+          <t>505土地公補財庫盒裝6盒</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="G50" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="51">
@@ -1909,22 +1909,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大甲金筒21</t>
+          <t>大甲金筒16</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>報價-大甲金筒VBA(15*20)(快速)</t>
+          <t>報價-大甲金筒BA(15*20)(一般)</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
@@ -1938,22 +1938,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大甲金筒20</t>
+          <t>大甲金筒12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>報價-大甲金筒VBA(13*20)(快速)</t>
+          <t>報價-大甲金筒4AC(LL)(B)</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="G52" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大甲金筒19</t>
+          <t>大甲金筒13</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(15*20)(快速)</t>
+          <t>報價-大甲金筒4AC(特大)(B)</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="G53" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54">
@@ -1996,22 +1996,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大甲金筒18</t>
+          <t>大甲金筒14</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(13*20)(快速)</t>
+          <t>報價-大甲金筒BA(12*16)(一般)</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G54" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="55">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大甲金筒17</t>
+          <t>大甲金筒15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>報價-大甲金筒CBA(12*16)(快速)</t>
+          <t>報價-大甲金筒BA(13*20)(一般)</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大甲金筒16</t>
+          <t>大甲金筒22-1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(15*20)(一般)</t>
+          <t>報價-大甲金筒3As(B)(蓋子)</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1500</v>
+        <v>70</v>
       </c>
       <c r="G56" t="n">
-        <v>1500</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大甲金筒15</t>
+          <t>大甲金筒17</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(13*20)(一般)</t>
+          <t>報價-大甲金筒CBA(12*16)(快速)</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大甲金筒14</t>
+          <t>大甲金筒18</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>報價-大甲金筒BA(12*16)(一般)</t>
+          <t>報價-大甲金筒CBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G58" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大甲金筒13</t>
+          <t>大甲金筒19</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(特大)(B)</t>
+          <t>報價-大甲金筒CBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G59" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="60">
@@ -2170,22 +2170,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>大甲金筒12</t>
+          <t>大甲金筒20</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(LL)(B)</t>
+          <t>報價-大甲金筒VBA(13*20)(快速)</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="G60" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="61">
@@ -2199,22 +2199,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大甲金筒11</t>
+          <t>大甲金筒21</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(XL)(B)</t>
+          <t>報價-大甲金筒VBA(15*20)(快速)</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="G61" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="62">
@@ -2228,22 +2228,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大甲金筒06</t>
+          <t>大甲金筒10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
+          <t>報價-大甲金筒4AC(大)(B)</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G62" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -2257,22 +2257,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大甲金筒09</t>
+          <t>大甲金筒11</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(中)(B)</t>
+          <t>報價-大甲金筒4AC(XL)(B)</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G63" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
@@ -2286,22 +2286,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大甲金筒08</t>
+          <t>大甲金筒06</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4AC(小)(B)</t>
+          <t>報價-大甲金筒4A(LL)(尺4)(B)</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="G64" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65">
@@ -2315,22 +2315,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大甲金筒07-1</t>
+          <t>大甲金筒09</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
+          <t>報價-大甲金筒4AC(中)(B)</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G65" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66">
@@ -2344,22 +2344,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大甲金筒07</t>
+          <t>大甲金筒08</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
+          <t>報價-大甲金筒4AC(小)(B)</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="G66" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67">
@@ -2373,22 +2373,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大甲金筒06-1</t>
+          <t>大甲金筒07-1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(特大)(尺6)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
@@ -2402,22 +2402,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大甲金筒22-1</t>
+          <t>大甲金筒07</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3As(B)(蓋子)</t>
+          <t>報價-大甲金筒4A(特大)(尺6)(B)</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="G68" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69">
@@ -2431,22 +2431,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大甲金筒05-1</t>
+          <t>大甲金筒06-1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(LL)(尺4)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
@@ -2460,22 +2460,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大甲金筒05</t>
+          <t>大甲金筒05-1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
+          <t>報價-大甲金筒蓋子4A(XL)(尺3.5)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大甲金筒04-1</t>
+          <t>大甲金筒05</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
+          <t>報價-大甲金筒4A(XL)(尺3.5)(B)</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="G71" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72">
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大甲金筒04</t>
+          <t>大甲金筒04-1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
+          <t>報價-大甲金筒蓋子4A(大)(尺3)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="G72" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大甲金筒03-1</t>
+          <t>大甲金筒04</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
+          <t>報價-大甲金筒4A(大)(尺3)(B)</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="G73" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74">
@@ -2576,22 +2576,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大甲金筒03</t>
+          <t>大甲金筒03-1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
+          <t>報價-大甲金筒蓋子4A(中)(尺2)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="G74" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大甲金筒22</t>
+          <t>大甲金筒03</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3As(B)</t>
+          <t>報價-大甲金筒4A(中)(尺2)(B)</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2634,22 +2634,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大甲金筒41</t>
+          <t>大甲金筒22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>報價-大甲金筒C1(尺3)(C)</t>
+          <t>報價-大甲金筒3As(B)</t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="G76" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大甲金筒23</t>
+          <t>大甲金筒41</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(小)(B)</t>
+          <t>報價-大甲金筒C1(尺3)(C)</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="G77" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78">
@@ -2692,22 +2692,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大甲金筒23-1</t>
+          <t>大甲金筒23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(小)(B)</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="G78" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79">
@@ -2721,22 +2721,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大甲金筒42</t>
+          <t>大甲金筒23-1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>報價-大甲金筒C1(尺6)(C)</t>
+          <t>報價-大甲金筒3A(小)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1100</v>
+        <v>80</v>
       </c>
       <c r="G79" t="n">
-        <v>1100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -2750,22 +2750,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大甲金筒02</t>
+          <t>大甲金筒42</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
+          <t>報價-大甲金筒C1(尺6)(C)</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="G80" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81">
@@ -2779,22 +2779,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大甲金筒40</t>
+          <t>大甲金筒02</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>報價-大甲金筒C1(尺2)(C)</t>
+          <t>報價-大甲金筒4A(小)(尺1)(B)</t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="G81" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82">
@@ -2808,12 +2808,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大甲金筒39</t>
+          <t>大甲金筒40</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(特大)(XB)</t>
+          <t>報價-大甲金筒C1(尺2)(C)</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2837,22 +2837,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大甲金筒38</t>
+          <t>大甲金筒39</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(LL)(XB)</t>
+          <t>報價-大甲金筒08(特大)(XB)</t>
         </is>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="G83" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84">
@@ -2866,22 +2866,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大甲金筒37</t>
+          <t>大甲金筒38</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(XL)(XB)</t>
+          <t>報價-大甲金筒08(LL)(XB)</t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="G84" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85">
@@ -2895,22 +2895,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大甲金筒36</t>
+          <t>大甲金筒37</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(大)(XB)</t>
+          <t>報價-大甲金筒08(XL)(XB)</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G85" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86">
@@ -2924,22 +2924,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大甲金筒35</t>
+          <t>大甲金筒36</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>報價-大甲金筒08(中)(XB)</t>
+          <t>報價-大甲金筒08(大)(XB)</t>
         </is>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87">
@@ -2953,22 +2953,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大甲金筒34</t>
+          <t>大甲金筒35</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(特大)(B)</t>
+          <t>報價-大甲金筒08(中)(XB)</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="G87" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88">
@@ -2982,22 +2982,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大甲金筒33</t>
+          <t>大甲金筒34</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(LL)(B)</t>
+          <t>報價-大甲金筒3AC(特大)(B)</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G88" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89">
@@ -3011,22 +3011,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大甲金筒32</t>
+          <t>大甲金筒33</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(XL)(B)</t>
+          <t>報價-大甲金筒3AC(LL)(B)</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90">
@@ -3040,22 +3040,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>大甲金筒31</t>
+          <t>大甲金筒32</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(大)(B)</t>
+          <t>報價-大甲金筒3AC(XL)(B)</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G90" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91">
@@ -3069,22 +3069,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>大甲金筒30</t>
+          <t>大甲金筒31</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(中)(B)</t>
+          <t>報價-大甲金筒3AC(大)(B)</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G91" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92">
@@ -3098,22 +3098,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>大甲金筒29</t>
+          <t>大甲金筒30</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3AC(小)(B)</t>
+          <t>報價-大甲金筒3AC(中)(B)</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93">
@@ -3127,22 +3127,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>大甲金筒28-1</t>
+          <t>大甲金筒29</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
+          <t>報價-大甲金筒3AC(小)(B)</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="G93" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
@@ -3156,22 +3156,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>大甲金筒28</t>
+          <t>大甲金筒28-1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(特大)(B)</t>
+          <t>報價-大甲金筒3A(特大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>850</v>
+        <v>160</v>
       </c>
       <c r="G94" t="n">
-        <v>850</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
@@ -3185,22 +3185,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>大甲金筒27-1</t>
+          <t>大甲金筒28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(特大)(B)</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>140</v>
+        <v>850</v>
       </c>
       <c r="G95" t="n">
-        <v>140</v>
+        <v>850</v>
       </c>
     </row>
     <row r="96">
@@ -3214,22 +3214,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>大甲金筒27</t>
+          <t>大甲金筒27-1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(LL)(B)</t>
+          <t>報價-大甲金筒3A(LL)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="G96" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
@@ -3243,22 +3243,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>大甲金筒26</t>
+          <t>大甲金筒27</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(XL)(B)</t>
+          <t>報價-大甲金筒3A(LL)(B)</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="G97" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
     </row>
     <row r="98">
@@ -3272,22 +3272,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>大甲金筒25-1</t>
+          <t>大甲金筒26</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(XL)(B)</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="G98" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99">
@@ -3301,22 +3301,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>大甲金筒25</t>
+          <t>大甲金筒25-1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(大)(B)</t>
+          <t>報價-大甲金筒3A(大)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -3330,22 +3330,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>大甲金筒24-1</t>
+          <t>大甲金筒25</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(大)(B)</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101">
@@ -3359,22 +3359,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>大甲金筒24</t>
+          <t>大甲金筒24-1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>報價-大甲金筒3A(中)(B)</t>
+          <t>報價-大甲金筒3A(中)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="G101" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
@@ -3388,22 +3388,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>大甲金筒02-1</t>
+          <t>大甲金筒24</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
+          <t>報價-大甲金筒3A(中)(B)</t>
         </is>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="G102" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103">
@@ -3417,22 +3417,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>大甲金筒01-1</t>
+          <t>大甲金筒02-1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
+          <t>報價-大甲金筒蓋子4A(小)(尺1)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G103" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104">
@@ -3446,22 +3446,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>大甲金筒01</t>
+          <t>大甲金筒01-1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>報價-大甲金筒4As(9吋)(B)</t>
+          <t>報價-大甲金筒蓋子4As(9吋)(B)(蓋子)</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="G104" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
@@ -3475,22 +3475,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X001</t>
+          <t>大甲金筒01</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>B大壽黃500張</t>
+          <t>報價-大甲金筒4As(9吋)(B)</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="G105" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106">
@@ -3504,22 +3504,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>X001</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>B大壽黃500張</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="G106" t="n">
-        <v>1550</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107">
@@ -3533,22 +3533,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="G107" t="n">
-        <v>2300</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="108">
@@ -3562,28 +3562,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RE32</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>尺3微煙TG3沉(1.1)10斤</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>230</v>
       </c>
       <c r="G108" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/29</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3591,22 +3591,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>L044</t>
+          <t>RE32</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>竹神甲馬20支</t>
+          <t>尺3微煙TG3沉(1.1)10斤</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>205</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>615</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="110">
@@ -3620,22 +3620,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>YE01</t>
+          <t>L044</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>冥元台幣(30入)</t>
+          <t>竹神甲馬20支</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>510</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
-        <v>510</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111">
@@ -3649,22 +3649,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>YE01</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>天庫80支</t>
+          <t>冥元台幣(30入)</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="G111" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>地庫80支</t>
+          <t>天庫80支</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>水庫80支</t>
+          <t>地庫80支</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3736,22 +3736,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L063</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>竹彩面大壽金20支K1</t>
+          <t>水庫80支</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
@@ -3765,22 +3765,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>X007</t>
+          <t>L063</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>B(長)中壽黃-蓮花版</t>
+          <t>竹彩面大壽金20支K1</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="116">
@@ -3794,22 +3794,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>X007</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>壽生(6千)送錯未收貨</t>
+          <t>B(長)中壽黃-蓮花版</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G116" t="n">
-        <v>290</v>
+        <v>620</v>
       </c>
     </row>
     <row r="117">
@@ -3823,22 +3823,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>壽生(6千)送錯未收貨</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="G117" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118">
@@ -3852,22 +3852,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>120</v>
       </c>
       <c r="G118" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119">
@@ -3881,28 +3881,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="G119" t="n">
-        <v>4500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3910,22 +3910,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>鑫東記13</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>富貴沉A尺6(香)</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="121">
@@ -3939,22 +3939,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記13</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>富貴沉A尺6(香)</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="122">
@@ -3968,22 +3968,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記12</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>富貴沉A尺3(香)</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F122" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G122" t="n">
-        <v>40</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="123">
@@ -3997,22 +3997,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4055,22 +4055,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G125" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4105,7 +4105,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4113,22 +4113,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PK06</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>福鼎四方金(金箔)60支</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>570</v>
+        <v>28</v>
       </c>
       <c r="G127" t="n">
-        <v>2850</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PK05</t>
+          <t>PK06</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>福鼎壽金(金箔)60支</t>
+          <t>福鼎四方金(金箔)60支</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PK07</t>
+          <t>PK05</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>福鼎福金(金箔)60支</t>
+          <t>福鼎壽金(金箔)60支</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4192,7 +4192,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4200,22 +4200,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>PK07</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>福鼎福金(金箔)60支</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="G130" t="n">
-        <v>390</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="131">
@@ -4229,22 +4229,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>B006</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(本色)古紙40支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="G131" t="n">
-        <v>1320</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132">
@@ -4258,28 +4258,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RA32</t>
+          <t>B006</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2尺八方螺旋香12hr</t>
+          <t>(本色)古紙40支</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="G132" t="n">
-        <v>1050</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>RA32</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>2尺八方螺旋香12hr</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="G133" t="n">
-        <v>1640</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="134">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4345,28 +4345,28 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F135" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G135" t="n">
-        <v>3120</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4374,22 +4374,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="F136" t="n">
-        <v>810</v>
+        <v>195</v>
       </c>
       <c r="G136" t="n">
-        <v>-810</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="137">
@@ -4403,22 +4403,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>P114</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7640寵物金40入</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F137" t="n">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="G137" t="n">
-        <v>850</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="138">
@@ -4432,22 +4432,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>P114</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>竹庫錢50支</t>
+          <t>7640寵物金40入</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>195</v>
+        <v>850</v>
       </c>
       <c r="G138" t="n">
-        <v>4290</v>
+        <v>850</v>
       </c>
     </row>
     <row r="139">
@@ -4461,51 +4461,51 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>竹庫錢50支</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F139" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G139" t="n">
-        <v>1150</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PN27</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>*075超拔寵物金40盒</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>810</v>
+        <v>230</v>
       </c>
       <c r="G140" t="n">
-        <v>810</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="141">
@@ -4519,22 +4519,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>PN27</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>*075超拔寵物金40盒</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>230</v>
+        <v>810</v>
       </c>
       <c r="G141" t="n">
-        <v>460</v>
+        <v>810</v>
       </c>
     </row>
     <row r="142">
@@ -4548,22 +4548,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G142" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143">
@@ -4577,28 +4577,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>L056</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>竹彩面五路18支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="G143" t="n">
-        <v>960</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4606,22 +4606,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SHOP3</t>
+          <t>L056</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>蝦皮-大師手作-小盤香香爐1個</t>
+          <t>竹彩面五路18支</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="G144" t="n">
-        <v>195</v>
+        <v>960</v>
       </c>
     </row>
     <row r="145">
@@ -4635,28 +4635,28 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SHOP2</t>
+          <t>SHOP3</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
+          <t>蝦皮-大師手作-小盤香香爐1個</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G145" t="n">
-        <v>270</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4664,28 +4664,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SHOP1</t>
+          <t>SHOP2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>蝦皮-隆盛行-便爐(小)</t>
+          <t>蝦皮-萬代-金普牌-J361手握式噴火槍專用瓦斯3個</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
         <v>135</v>
       </c>
       <c r="G146" t="n">
-        <v>675</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4693,22 +4693,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>WB02</t>
+          <t>SHOP1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3號防風燭80入</t>
+          <t>蝦皮-隆盛行-便爐(小)</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>800</v>
+        <v>135</v>
       </c>
       <c r="G147" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148">
@@ -4722,22 +4722,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>WB02</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>3號防風燭80入</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="G148" t="n">
-        <v>2900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="149">
@@ -4751,22 +4751,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="150">
@@ -4780,22 +4780,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>L057</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>竹彩面土地公18支</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F150" t="n">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="G150" t="n">
-        <v>640</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="151">
@@ -4809,22 +4809,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>L057</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>竹彩面土地公18支</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G151" t="n">
-        <v>1525</v>
+        <v>640</v>
       </c>
     </row>
     <row r="152">
@@ -4838,22 +4838,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>600</v>
+        <v>305</v>
       </c>
       <c r="G152" t="n">
-        <v>-600</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="153">
@@ -4867,22 +4867,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PE304</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>304大金元寶100盒</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="G153" t="n">
-        <v>200</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="154">
@@ -4896,28 +4896,28 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PE0306</t>
+          <t>PE304</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>306大金條100盒</t>
+          <t>304大金元寶100盒</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>10</v>
       </c>
       <c r="F154" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G154" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4925,22 +4925,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>PE0306</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>306大金條100盒</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F155" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G155" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
@@ -4954,22 +4954,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>L067</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(小)竹壽金(十面)20支</t>
+          <t>金白錢各1</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G156" t="n">
-        <v>2300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157">
@@ -4983,28 +4983,28 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>L067</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>(小)竹壽金(十面)20支</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F157" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="G157" t="n">
-        <v>430</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5012,22 +5012,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>I004</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>粗甲馬(10支)</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="G158" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>YE02</t>
+          <t>I004</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>冥元美金100(30入)</t>
+          <t>粗甲馬(10支)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="G159" t="n">
-        <v>490</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160">
@@ -5070,22 +5070,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>L051</t>
+          <t>YE02</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>竹蓮花金30支G6</t>
+          <t>冥元美金100(30入)</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="G160" t="n">
-        <v>870</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>L052</t>
+          <t>L051</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>竹蓮花銀30支G6</t>
+          <t>竹蓮花金30支G6</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5128,28 +5128,28 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>L052</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>竹蓮花銀30支G6</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="G162" t="n">
-        <v>490</v>
+        <v>870</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5157,22 +5157,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>NIL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>竹漿天尺20支</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="G163" t="n">
-        <v>2000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164">
@@ -5186,28 +5186,28 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F164" t="n">
         <v>200</v>
       </c>
       <c r="G164" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5215,22 +5215,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>WB01</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>(安全)防風燈50對</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F165" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G165" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="166">
@@ -5244,28 +5244,28 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>WB01</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>日曆(贈送)</t>
+          <t>(安全)防風燈50對</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5273,28 +5273,28 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>WA02</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>(2號)旺6對</t>
+          <t>日曆(贈送)</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5302,22 +5302,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>(2號)旺6對</t>
         </is>
       </c>
       <c r="E168" t="n">
         <v>4</v>
       </c>
       <c r="F168" t="n">
-        <v>205</v>
+        <v>510</v>
       </c>
       <c r="G168" t="n">
-        <v>820</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="169">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>G002</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>台中粗四方60支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
         <v>205</v>
       </c>
       <c r="G169" t="n">
-        <v>1230</v>
+        <v>820</v>
       </c>
     </row>
     <row r="170">
@@ -5360,22 +5360,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>L071</t>
+          <t>G002</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>(小)竹銀紙(2只)50支</t>
+          <t>台中粗四方60支</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G170" t="n">
-        <v>2200</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="171">
@@ -5389,22 +5389,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>L071</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(小)竹銀紙(2只)50支</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F171" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G171" t="n">
-        <v>1125</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="172">
@@ -5418,28 +5418,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>L045</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>竹庫錢50支'</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>5</v>
       </c>
       <c r="F172" t="n">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G172" t="n">
-        <v>975</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5447,22 +5447,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>L074</t>
+          <t>L045</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>竹小往生24入</t>
+          <t>竹庫錢50支'</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G173" t="n">
-        <v>460</v>
+        <v>975</v>
       </c>
     </row>
     <row r="174">
@@ -5476,28 +5476,28 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>L074</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>(白三色)花仔錢60支</t>
+          <t>竹小往生24入</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="G174" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5505,22 +5505,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>G007</t>
+          <t>D006</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>粗蓮花金48支</t>
+          <t>(白三色)花仔錢60支</t>
         </is>
       </c>
       <c r="E175" t="n">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>225</v>
+        <v>430</v>
       </c>
       <c r="G175" t="n">
-        <v>225</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176">
@@ -5534,22 +5534,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>G007</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>太極(5張)</t>
+          <t>粗蓮花金48支</t>
         </is>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="G176" t="n">
-        <v>720</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177">
@@ -5563,22 +5563,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>L037</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>台北環保壽金48支</t>
+          <t>太極(5張)</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="G177" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
     </row>
     <row r="178">
@@ -5592,22 +5592,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>L038</t>
+          <t>L037</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>台北環保刈金48支</t>
+          <t>台北環保壽金48支</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
         <v>120</v>
       </c>
       <c r="G178" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="179">
@@ -5621,22 +5621,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>L064</t>
+          <t>L038</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>竹大壽生6入</t>
+          <t>台北環保刈金48支</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G179" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
     </row>
     <row r="180">
@@ -5650,22 +5650,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>L055</t>
+          <t>L064</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>竹壽金(5只)30支</t>
+          <t>竹大壽生6入</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="G180" t="n">
-        <v>1450</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181">
@@ -5679,22 +5679,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>L068</t>
+          <t>L055</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>(小)竹四方金48支G5-S</t>
+          <t>竹壽金(5只)30支</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F181" t="n">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="G181" t="n">
-        <v>3375</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="182">
@@ -5708,22 +5708,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>L068</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>(小)竹四方金48支G5-S</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F182" t="n">
         <v>225</v>
       </c>
       <c r="G182" t="n">
-        <v>1125</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="183">
@@ -5737,22 +5737,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PE505</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>50S土地公6盒</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F183" t="n">
-        <v>700</v>
+        <v>225</v>
       </c>
       <c r="G183" t="n">
-        <v>700</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="184">
@@ -5766,22 +5766,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>G006</t>
+          <t>PE505</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>*粗蓮花銀36支</t>
+          <t>50S土地公6盒</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="G184" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
     </row>
     <row r="185">
@@ -5795,22 +5795,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TA10</t>
+          <t>G006</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A634男名牌LV裝40入</t>
+          <t>*粗蓮花銀36支</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="G185" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186">
@@ -5824,22 +5824,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>TA10</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>(紅)補運錢40支</t>
+          <t>A634男名牌LV裝40入</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="G186" t="n">
-        <v>1525</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187">
@@ -5853,22 +5853,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>A631男恤衫40入</t>
+          <t>(紅)補運錢40支</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F187" t="n">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="G187" t="n">
-        <v>50</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="188">
@@ -5882,12 +5882,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TA18</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>B159男休閒鞋30入</t>
+          <t>A631男恤衫40入</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -5911,12 +5911,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TA22</t>
+          <t>TA18</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>B165男波鞋30入</t>
+          <t>B159男休閒鞋30入</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5940,28 +5940,28 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>TA22</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A650男西裝40入</t>
+          <t>B165男波鞋30入</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G190" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5969,22 +5969,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>B019</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>白毛邊天金50只</t>
+          <t>A650男西裝40入</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="G191" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192">
@@ -5998,12 +5998,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>B018</t>
+          <t>B019</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>白毛邊壽金50只</t>
+          <t>白毛邊天金50只</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6019,7 +6019,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6027,22 +6027,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>L069</t>
+          <t>B018</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>(小)竹福金50支G9-S</t>
+          <t>白毛邊壽金50只</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="G193" t="n">
-        <v>1125</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194">
@@ -6056,28 +6056,28 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>L069</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>壽生(6千)</t>
+          <t>(小)竹福金50支G9-S</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="G194" t="n">
-        <v>290</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6085,22 +6085,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>G004</t>
+          <t>A001</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>台中粗銀紙40支</t>
+          <t>壽生(6千)</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="G195" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196">
@@ -6114,22 +6114,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>J019</t>
+          <t>G004</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>(四方)地藏王30支</t>
+          <t>台中粗銀紙40支</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" t="n">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="G196" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197">
@@ -6143,22 +6143,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>G003</t>
+          <t>J019</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>台中粗福金40支</t>
+          <t>(四方)地藏王30支</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198">
@@ -6172,22 +6172,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>G001</t>
+          <t>G003</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>台中粗壽金30支</t>
+          <t>台中粗福金40支</t>
         </is>
       </c>
       <c r="E198" t="n">
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G198" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199">
@@ -6201,22 +6201,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>G055</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>台北刈金50支</t>
+          <t>台中粗壽金30支</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>2</v>
       </c>
       <c r="F199" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G199" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>G058</t>
+          <t>G055</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>台北大銀50支</t>
+          <t>台北刈金50支</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6251,7 +6251,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6259,22 +6259,22 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>G058</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>台北大銀50支</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G201" t="n">
-        <v>3150</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202">
@@ -6288,22 +6288,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F202" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G202" t="n">
-        <v>120</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="203">
@@ -6317,22 +6317,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G203" t="n">
-        <v>1050</v>
+        <v>120</v>
       </c>
     </row>
     <row r="204">
@@ -6346,22 +6346,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F204" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G204" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="205">
@@ -6375,21 +6375,50 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>鑫東記06</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>A特沉料尺3(香)</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>70</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>鑫東記01</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>微煙10A香環(60入)</t>
         </is>
       </c>
-      <c r="E205" t="n">
+      <c r="E206" t="n">
         <v>1</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F206" t="n">
         <v>45</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G206" t="n">
         <v>45</v>
       </c>
     </row>
@@ -6576,7 +6605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8805,12 +8834,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>百豐002434</t>
+          <t>百豐002433</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>紅色花袋4斤10包/串</t>
+          <t>紅色花袋3斤10包/串</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -8820,12 +8849,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>百豐002435</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>紅色花袋5斤10包/串</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -8835,27 +8864,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -8865,57 +8894,57 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -8925,42 +8954,42 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -8970,27 +8999,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -9000,45 +9029,60 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C165" t="n">
         <v>80</v>
       </c>
     </row>
@@ -9053,7 +9097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12147,12 +12191,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>百豐002434</t>
+          <t>百豐002433</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>紅色花袋4斤10包/串</t>
+          <t>紅色花袋3斤10包/串</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -12165,12 +12209,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>百豐002435</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>紅色花袋5斤10包/串</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -12183,16 +12227,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175">
@@ -12201,12 +12245,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -12219,16 +12263,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
@@ -12237,12 +12281,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -12255,16 +12299,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179">
@@ -12273,16 +12317,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
@@ -12291,15 +12335,33 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D181" t="n">
         <v>80</v>
       </c>
     </row>
@@ -12314,7 +12376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15408,12 +15470,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>百豐002434</t>
+          <t>百豐002433</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>紅色花袋4斤10包/串</t>
+          <t>紅色花袋3斤10包/串</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -15426,12 +15488,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>百豐002435</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>紅色花袋5斤10包/串</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -15444,16 +15506,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175">
@@ -15462,12 +15524,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -15480,16 +15542,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
@@ -15498,12 +15560,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -15516,16 +15578,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179">
@@ -15534,16 +15596,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
@@ -15552,15 +15614,33 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D181" t="n">
         <v>80</v>
       </c>
     </row>
@@ -15575,7 +15655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18508,12 +18588,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>百豐002434</t>
+          <t>百豐002433</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>紅色花袋4斤10包/串</t>
+          <t>紅色花袋3斤10包/串</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -18528,12 +18608,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>百豐002435</t>
+          <t>百豐002434</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>紅色花袋5斤10包/串</t>
+          <t>紅色花袋4斤10包/串</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -18548,32 +18628,32 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>進益1</t>
+          <t>百豐002435</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>R3特級板沉</t>
+          <t>紅色花袋5斤10包/串</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2026/02/11</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>進益2</t>
+          <t>進益1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>R6特級板沉</t>
+          <t>R3特級板沉</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -18588,32 +18668,32 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>鑫東記01</t>
+          <t>進益2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>微煙10A香環(60入)</t>
+          <t>R6特級板沉</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>鑫東記02</t>
+          <t>鑫東記01</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
+          <t>微煙10A香環(60入)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -18622,18 +18702,18 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>鑫東記04</t>
+          <t>鑫東記02</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>板沉尺3(香)</t>
+          <t>41-1-E123極品水沉香(小盤香)(24入)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -18642,18 +18722,18 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>鑫東記05</t>
+          <t>鑫東記04</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>板沉尺6(香)</t>
+          <t>板沉尺3(香)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -18668,12 +18748,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>鑫東記06</t>
+          <t>鑫東記05</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A特沉料尺3(香)</t>
+          <t>板沉尺6(香)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -18682,38 +18762,38 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>鑫東記07</t>
+          <t>鑫東記06</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>桂香尺3(40斤)</t>
+          <t>A特沉料尺3(香)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>鑫東記08</t>
+          <t>鑫東記07</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>桂香尺6(40斤)</t>
+          <t>桂香尺3(40斤)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18728,12 +18808,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>鑫東記09</t>
+          <t>鑫東記08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A特沉料尺3(40斤)(香)</t>
+          <t>桂香尺6(40斤)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18742,18 +18822,18 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>鑫東記10</t>
+          <t>鑫東記09</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A特沉料尺6(40斤)(香)</t>
+          <t>A特沉料尺3(40斤)(香)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18768,12 +18848,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>鑫東記11</t>
+          <t>鑫東記10</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>四季10香環(60入)</t>
+          <t>A特沉料尺6(40斤)(香)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18782,18 +18862,18 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>鑫東記12</t>
+          <t>鑫東記11</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>富貴沉A尺3(香)</t>
+          <t>四季10香環(60入)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18802,26 +18882,46 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>鑫東記12</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>富貴沉A尺3(香)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>鑫東記13</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>富貴沉A尺6(香)</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>2026/01/15</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D163" t="n">
         <v>80</v>
       </c>
     </row>
